--- a/Input Data Summary/OtherFields_From_IR_and_Source.xlsx
+++ b/Input Data Summary/OtherFields_From_IR_and_Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Input Data Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF5A574-A2DE-439D-9365-FF54F996069E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E28A7AD-9558-44FC-A84B-FED3C80DC208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" xr2:uid="{7EB6CA85-DEC3-4664-8E37-E2FE4A578472}"/>
   </bookViews>
@@ -22,12 +22,32 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={637D6E38-A3AD-46B4-B9E1-F3DDF3DB88D5}</author>
+    <author>tc={E9337149-1A96-4F0C-B5ED-8478ECCF1A0B}</author>
     <author>tc={B554E974-AF1E-4C0B-A269-1083DF7F456C}</author>
+    <author>tc={18ADA2ED-3FA1-4C7F-8CED-3531CB770A5B}</author>
+    <author>tc={649DCBEE-EA9A-460B-BA56-8A3CBD53ACFD}</author>
     <author>tc={BCAD953D-5F14-47A6-B25E-A1AEA89B0296}</author>
     <author>tc={BE33CE91-23F0-4C1C-B412-BD1CB99DA7B5}</author>
   </authors>
   <commentList>
-    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{B554E974-AF1E-4C0B-A269-1083DF7F456C}">
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{637D6E38-A3AD-46B4-B9E1-F3DDF3DB88D5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ODFT with 如客戶提供報案編號 (if any) is out of scope</t>
+      </text>
+    </comment>
+    <comment ref="J36" authorId="1" shapeId="0" xr:uid="{E9337149-1A96-4F0C-B5ED-8478ECCF1A0B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Tolerate during evaluation</t>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="2" shapeId="0" xr:uid="{B554E974-AF1E-4C0B-A269-1083DF7F456C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -35,7 +55,23 @@
     Intelligence 3 ODFT source file is missing, and therefore assume it does not exist</t>
       </text>
     </comment>
-    <comment ref="B53" authorId="1" shapeId="0" xr:uid="{BCAD953D-5F14-47A6-B25E-A1AEA89B0296}">
+    <comment ref="J38" authorId="3" shapeId="0" xr:uid="{18ADA2ED-3FA1-4C7F-8CED-3531CB770A5B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Tolerate during evaluation</t>
+      </text>
+    </comment>
+    <comment ref="E46" authorId="4" shapeId="0" xr:uid="{649DCBEE-EA9A-460B-BA56-8A3CBD53ACFD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    on 21-Aug-2024 to buy a vacuum cleaner.</t>
+      </text>
+    </comment>
+    <comment ref="B53" authorId="5" shapeId="0" xr:uid="{BCAD953D-5F14-47A6-B25E-A1AEA89B0296}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -43,7 +79,7 @@
     Intelligence 2 Police witness statement source file is missing, and therefore assume it does not exist</t>
       </text>
     </comment>
-    <comment ref="B159" authorId="2" shapeId="0" xr:uid="{BE33CE91-23F0-4C1C-B412-BD1CB99DA7B5}">
+    <comment ref="B159" authorId="6" shapeId="0" xr:uid="{BE33CE91-23F0-4C1C-B412-BD1CB99DA7B5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="174">
   <si>
     <t>Type</t>
   </si>
@@ -542,12 +578,60 @@
       <t>■■■</t>
     </r>
   </si>
+  <si>
+    <t>Payments(Authorised/Scams)</t>
+  </si>
+  <si>
+    <t>District Investigation Team 3, Yuen Long District</t>
+  </si>
+  <si>
+    <t>UAP-Impersonation (Other)</t>
+  </si>
+  <si>
+    <t>AP-Purchase</t>
+  </si>
+  <si>
+    <t>AP-Purchase (Online Shopping Fraud)</t>
+  </si>
+  <si>
+    <t>District Investigation Team 4, Western District, Aberdeen Police Station</t>
+  </si>
+  <si>
+    <t>District Investigation Team 3, Yau Tsim District, Tsim Sha Tsui Police Station</t>
+  </si>
+  <si>
+    <t>District Technology &amp; Financial Crime Unit, Tuen Mun District, Tuen Mun Police Station</t>
+  </si>
+  <si>
+    <t>District Investigation Team 5, Lantau District</t>
+  </si>
+  <si>
+    <t>Obtaining Property By Deception</t>
+  </si>
+  <si>
+    <t>AP- Impersonation(others)</t>
+  </si>
+  <si>
+    <t>AP- Employment Fraud (Boosting Sales Scam)</t>
+  </si>
+  <si>
+    <t>ESPS 7■■■■■■ and NTKDIV 24■■■■■ (DIT2-■■■■■)</t>
+  </si>
+  <si>
+    <t>District Investigation Team 7, Sha Tin District, Hong Kong POLICE</t>
+  </si>
+  <si>
+    <t>ESPS ■■■■/2024 and ERC24100■■■■■■■■ (E-HUB-■■■)</t>
+  </si>
+  <si>
+    <t>投資</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,18 +773,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -725,7 +797,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -911,6 +983,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1072,7 +1174,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1081,8 +1183,19 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1464,8 +1577,20 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I20" dT="2025-06-29T21:41:30.82" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{637D6E38-A3AD-46B4-B9E1-F3DDF3DB88D5}">
+    <text>ODFT with 如客戶提供報案編號 (if any) is out of scope</text>
+  </threadedComment>
+  <threadedComment ref="J36" dT="2025-06-29T22:00:48.07" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{E9337149-1A96-4F0C-B5ED-8478ECCF1A0B}">
+    <text>Tolerate during evaluation</text>
+  </threadedComment>
   <threadedComment ref="B38" dT="2025-06-29T20:14:16.58" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{B554E974-AF1E-4C0B-A269-1083DF7F456C}">
     <text>Intelligence 3 ODFT source file is missing, and therefore assume it does not exist</text>
+  </threadedComment>
+  <threadedComment ref="J38" dT="2025-06-29T22:00:32.59" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{18ADA2ED-3FA1-4C7F-8CED-3531CB770A5B}">
+    <text>Tolerate during evaluation</text>
+  </threadedComment>
+  <threadedComment ref="E46" dT="2025-06-29T22:08:26.55" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{649DCBEE-EA9A-460B-BA56-8A3CBD53ACFD}">
+    <text>on 21-Aug-2024 to buy a vacuum cleaner.</text>
   </threadedComment>
   <threadedComment ref="B53" dT="2025-06-29T20:22:24.97" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{BCAD953D-5F14-47A6-B25E-A1AEA89B0296}">
     <text>Intelligence 2 Police witness statement source file is missing, and therefore assume it does not exist</text>
@@ -1481,11 +1606,14 @@
   <dimension ref="A1:S190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F190" sqref="F190"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="9.140625" style="7"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1503,7 +1631,7 @@
       <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G1" t="s">
@@ -1559,12 +1687,14 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
-        <v>30</v>
+      <c r="G2" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -1581,8 +1711,14 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>31</v>
+      <c r="E3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1598,15 +1734,33 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>32</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>159</v>
+      </c>
       <c r="L4" t="s">
         <v>34</v>
       </c>
+      <c r="M4" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1621,8 +1775,14 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1638,8 +1798,14 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1655,8 +1821,14 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1672,8 +1844,14 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1689,7 +1867,13 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1706,7 +1890,13 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1723,8 +1913,14 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1740,7 +1936,13 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1757,8 +1959,14 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1774,14 +1982,32 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
+        <v>40</v>
       </c>
       <c r="I14" t="s">
         <v>40</v>
       </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" t="s">
+        <v>163</v>
+      </c>
       <c r="L14" t="s">
         <v>41</v>
+      </c>
+      <c r="M14" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1797,8 +2023,14 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1814,11 +2046,17 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1831,17 +2069,35 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" s="9" t="s">
         <v>42</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="I17" t="s">
         <v>43</v>
       </c>
+      <c r="J17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>164</v>
+      </c>
       <c r="L17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M17" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1854,17 +2110,35 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" s="9" t="s">
         <v>42</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="I18" t="s">
         <v>44</v>
       </c>
+      <c r="J18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="L18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M18" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1877,11 +2151,17 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1894,14 +2174,26 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I20" t="s">
+      <c r="G20" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J20" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1914,17 +2206,35 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E21" s="7" t="s">
         <v>32</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="I21" t="s">
         <v>48</v>
       </c>
+      <c r="J21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="L21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M21" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1937,17 +2247,35 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
+      <c r="E22" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="I22" t="s">
         <v>50</v>
       </c>
+      <c r="J22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" t="s">
+        <v>51</v>
+      </c>
       <c r="O22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1960,17 +2288,35 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="I23" t="s">
         <v>52</v>
       </c>
+      <c r="J23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" t="s">
+        <v>53</v>
+      </c>
       <c r="O23" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1983,17 +2329,35 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E24" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="I24" t="s">
         <v>54</v>
       </c>
+      <c r="J24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N24" t="s">
+        <v>55</v>
+      </c>
       <c r="O24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2006,11 +2370,17 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G25" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2023,11 +2393,17 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E26" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G26" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -2040,11 +2416,17 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="F27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2057,11 +2439,17 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E28" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G28" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2074,11 +2462,17 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E29" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G29" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2091,11 +2485,17 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E30" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G30" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2108,11 +2508,17 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2125,11 +2531,17 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="F32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2142,11 +2554,17 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E33" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G33" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -2159,17 +2577,35 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E34" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>58</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="s">
+        <v>59</v>
       </c>
       <c r="I34" t="s">
         <v>59</v>
       </c>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N34" t="s">
+        <v>60</v>
+      </c>
       <c r="O34" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2182,11 +2618,17 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2199,17 +2641,35 @@
       <c r="D36" t="s">
         <v>5</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E36" s="7" t="s">
         <v>61</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="I36" t="s">
         <v>62</v>
       </c>
+      <c r="J36" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="L36" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M36" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -2222,20 +2682,44 @@
       <c r="D37">
         <v>2</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E37" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>63</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" t="s">
+        <v>64</v>
       </c>
       <c r="I37" t="s">
         <v>64</v>
       </c>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37" t="s">
+        <v>171</v>
+      </c>
       <c r="L37" t="s">
         <v>66</v>
       </c>
+      <c r="M37" t="s">
+        <v>171</v>
+      </c>
+      <c r="N37" t="s">
+        <v>65</v>
+      </c>
       <c r="O37" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2248,14 +2732,26 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="F38" t="s">
+      <c r="E38" s="7" t="s">
         <v>67</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" t="s">
+        <v>172</v>
       </c>
       <c r="I38" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J38" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2268,11 +2764,17 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="F39" t="s">
+      <c r="E39" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G39" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2285,14 +2787,26 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="F40" t="s">
+      <c r="E40" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="16" t="s">
         <v>71</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" t="s">
+        <v>72</v>
       </c>
       <c r="I40" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2305,14 +2819,20 @@
       <c r="D41" t="s">
         <v>9</v>
       </c>
-      <c r="F41" t="s">
+      <c r="E41" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I41" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2325,14 +2845,20 @@
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="F42" t="s">
+      <c r="E42" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="14" t="s">
         <v>74</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="I42" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -2345,11 +2871,17 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="F43" t="s">
+      <c r="E43" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F43" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2362,14 +2894,20 @@
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="F44" t="s">
+      <c r="E44" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>74</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="I44" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2382,14 +2920,20 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="F45" t="s">
+      <c r="E45" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>76</v>
       </c>
       <c r="I45" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2402,11 +2946,17 @@
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="F46" t="s">
+      <c r="E46" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G46" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2419,14 +2969,14 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="7" t="s">
         <v>69</v>
       </c>
       <c r="I47" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -2439,7 +2989,7 @@
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I48" t="s">
@@ -2462,7 +3012,7 @@
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="7" t="s">
         <v>69</v>
       </c>
       <c r="I49" t="s">
@@ -2482,7 +3032,7 @@
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I50" t="s">
@@ -2505,7 +3055,7 @@
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="7" t="s">
         <v>69</v>
       </c>
       <c r="I51" t="s">
@@ -2525,7 +3075,7 @@
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="7" t="s">
         <v>69</v>
       </c>
       <c r="I52" t="s">
@@ -2545,7 +3095,7 @@
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2562,7 +3112,7 @@
       <c r="D54">
         <v>1</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2579,7 +3129,7 @@
       <c r="D55">
         <v>1</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I55" t="s">
@@ -2602,7 +3152,7 @@
       <c r="D56">
         <v>1</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2619,7 +3169,7 @@
       <c r="D57">
         <v>1</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2636,7 +3186,7 @@
       <c r="D58">
         <v>1</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2653,7 +3203,7 @@
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2670,7 +3220,7 @@
       <c r="D60">
         <v>1</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I60" t="s">
@@ -2690,7 +3240,7 @@
       <c r="D61">
         <v>1</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="7" t="s">
         <v>84</v>
       </c>
       <c r="I61" t="s">
@@ -2710,7 +3260,7 @@
       <c r="D62">
         <v>1</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="7" t="s">
         <v>69</v>
       </c>
       <c r="I62" t="s">
@@ -2730,7 +3280,7 @@
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="7" t="s">
         <v>69</v>
       </c>
       <c r="I63" t="s">
@@ -2750,7 +3300,7 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2767,7 +3317,7 @@
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2784,7 +3334,7 @@
       <c r="D66">
         <v>1</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I66" t="s">
@@ -2804,7 +3354,7 @@
       <c r="D67">
         <v>1</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F67" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I67" t="s">
@@ -2827,7 +3377,7 @@
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I68" t="s">
@@ -2847,7 +3397,7 @@
       <c r="D69">
         <v>1</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2864,7 +3414,7 @@
       <c r="D70">
         <v>1</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="7" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2881,7 +3431,7 @@
       <c r="D71">
         <v>1</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I71" t="s">
@@ -2904,7 +3454,7 @@
       <c r="D72">
         <v>1</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I72" t="s">
@@ -2927,7 +3477,7 @@
       <c r="D73">
         <v>1</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="7" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2944,7 +3494,7 @@
       <c r="D74">
         <v>1</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I74" t="s">
@@ -2967,7 +3517,7 @@
       <c r="D75">
         <v>1</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2984,7 +3534,7 @@
       <c r="D76">
         <v>1</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I76" t="s">
@@ -3007,7 +3557,7 @@
       <c r="D77">
         <v>1</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3024,7 +3574,7 @@
       <c r="D78">
         <v>1</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3041,7 +3591,7 @@
       <c r="D79">
         <v>1</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3058,7 +3608,7 @@
       <c r="D80">
         <v>1</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3075,7 +3625,7 @@
       <c r="D81">
         <v>1</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3092,7 +3642,7 @@
       <c r="D82">
         <v>1</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3109,7 +3659,7 @@
       <c r="D83">
         <v>1</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3126,7 +3676,7 @@
       <c r="D84">
         <v>1</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3143,7 +3693,7 @@
       <c r="D85">
         <v>1</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3160,7 +3710,7 @@
       <c r="D86">
         <v>1</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3177,7 +3727,7 @@
       <c r="D87">
         <v>1</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3194,7 +3744,7 @@
       <c r="D88">
         <v>1</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3211,7 +3761,7 @@
       <c r="D89">
         <v>1</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3228,7 +3778,7 @@
       <c r="D90">
         <v>1</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3245,7 +3795,7 @@
       <c r="D91">
         <v>1</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3262,7 +3812,7 @@
       <c r="D92">
         <v>1</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3279,7 +3829,7 @@
       <c r="D93">
         <v>1</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3296,7 +3846,7 @@
       <c r="D94">
         <v>1</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F94" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3313,7 +3863,7 @@
       <c r="D95">
         <v>1</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3330,7 +3880,7 @@
       <c r="D96">
         <v>1</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="7" t="s">
         <v>46</v>
       </c>
       <c r="I96" t="s">
@@ -3353,7 +3903,7 @@
       <c r="D97">
         <v>1</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="7" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3370,7 +3920,7 @@
       <c r="D98">
         <v>1</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3387,7 +3937,7 @@
       <c r="D99">
         <v>1</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F99" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I99" t="s">
@@ -3413,7 +3963,7 @@
       <c r="D100">
         <v>1</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="7" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3430,7 +3980,7 @@
       <c r="D101">
         <v>1</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F101" s="7" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3447,7 +3997,7 @@
       <c r="D102">
         <v>1</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" s="7" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3464,7 +4014,7 @@
       <c r="D103">
         <v>1</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F103" s="7" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3481,7 +4031,7 @@
       <c r="D104">
         <v>1</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F104" s="7" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3498,7 +4048,7 @@
       <c r="D105">
         <v>1</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="F105" s="7" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3515,7 +4065,7 @@
       <c r="D106">
         <v>1</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F106" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3532,7 +4082,7 @@
       <c r="D107">
         <v>1</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3549,7 +4099,7 @@
       <c r="D108">
         <v>1</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="F108" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3566,7 +4116,7 @@
       <c r="D109" t="s">
         <v>10</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F109" s="7" t="s">
         <v>108</v>
       </c>
       <c r="I109" t="s">
@@ -3589,7 +4139,7 @@
       <c r="D110" t="s">
         <v>10</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="F110" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I110" t="s">
@@ -3612,7 +4162,7 @@
       <c r="D111">
         <v>1</v>
       </c>
-      <c r="F111" s="4" t="s">
+      <c r="F111" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3629,7 +4179,7 @@
       <c r="D112">
         <v>1</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F112" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3646,7 +4196,7 @@
       <c r="D113">
         <v>1</v>
       </c>
-      <c r="F113" s="4" t="s">
+      <c r="F113" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3663,7 +4213,7 @@
       <c r="D114">
         <v>1</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="F114" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3680,7 +4230,7 @@
       <c r="D115">
         <v>1</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F115" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3697,7 +4247,7 @@
       <c r="D116">
         <v>1</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F116" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3714,10 +4264,10 @@
       <c r="D117">
         <v>1</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="F117" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I117" s="5" t="s">
+      <c r="I117" s="3" t="s">
         <v>116</v>
       </c>
       <c r="O117" t="s">
@@ -3737,7 +4287,7 @@
       <c r="D118">
         <v>1</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="F118" s="7" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3754,7 +4304,7 @@
       <c r="D119">
         <v>1</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F119" s="7" t="s">
         <v>36</v>
       </c>
       <c r="I119" t="s">
@@ -3777,7 +4327,7 @@
       <c r="D120">
         <v>1</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F120" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3794,7 +4344,7 @@
       <c r="D121">
         <v>1</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F121" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3811,7 +4361,7 @@
       <c r="D122">
         <v>1</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="F122" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3828,7 +4378,7 @@
       <c r="D123">
         <v>1</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I123" t="s">
@@ -3848,7 +4398,7 @@
       <c r="D124">
         <v>1</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="F124" s="7" t="s">
         <v>119</v>
       </c>
       <c r="I124" t="s">
@@ -3868,7 +4418,7 @@
       <c r="D125">
         <v>1</v>
       </c>
-      <c r="F125" s="4" t="s">
+      <c r="F125" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3885,7 +4435,7 @@
       <c r="D126">
         <v>1</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="F126" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3902,7 +4452,7 @@
       <c r="D127">
         <v>1</v>
       </c>
-      <c r="F127" s="4" t="s">
+      <c r="F127" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3919,7 +4469,7 @@
       <c r="D128">
         <v>1</v>
       </c>
-      <c r="F128" s="4" t="s">
+      <c r="F128" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3936,7 +4486,7 @@
       <c r="D129">
         <v>1</v>
       </c>
-      <c r="F129" s="4" t="s">
+      <c r="F129" s="7" t="s">
         <v>121</v>
       </c>
       <c r="I129" t="s">
@@ -3959,7 +4509,7 @@
       <c r="D130">
         <v>1</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="F130" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I130" t="s">
@@ -3982,7 +4532,7 @@
       <c r="D131">
         <v>1</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="F131" s="7" t="s">
         <v>76</v>
       </c>
       <c r="I131" t="s">
@@ -4002,7 +4552,7 @@
       <c r="D132">
         <v>1</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="F132" s="7" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4019,7 +4569,7 @@
       <c r="D133">
         <v>1</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="F133" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4036,7 +4586,7 @@
       <c r="D134">
         <v>1</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="F134" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4053,7 +4603,7 @@
       <c r="D135">
         <v>1</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="F135" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I135" t="s">
@@ -4076,7 +4626,7 @@
       <c r="D136">
         <v>1</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="F136" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4093,7 +4643,7 @@
       <c r="D137">
         <v>1</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="F137" s="7" t="s">
         <v>124</v>
       </c>
       <c r="I137" t="s">
@@ -4113,7 +4663,7 @@
       <c r="D138">
         <v>1</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="F138" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I138" t="s">
@@ -4133,7 +4683,7 @@
       <c r="D139">
         <v>1</v>
       </c>
-      <c r="F139" s="4" t="s">
+      <c r="F139" s="7" t="s">
         <v>125</v>
       </c>
       <c r="I139" t="s">
@@ -4153,7 +4703,7 @@
       <c r="D140">
         <v>1</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="F140" s="7" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4170,7 +4720,7 @@
       <c r="D141">
         <v>1</v>
       </c>
-      <c r="F141" s="4" t="s">
+      <c r="F141" s="7" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4187,7 +4737,7 @@
       <c r="D142">
         <v>1</v>
       </c>
-      <c r="F142" s="4" t="s">
+      <c r="F142" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4204,7 +4754,7 @@
       <c r="D143">
         <v>1</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="F143" s="7" t="s">
         <v>67</v>
       </c>
       <c r="I143" t="s">
@@ -4224,7 +4774,7 @@
       <c r="D144">
         <v>1</v>
       </c>
-      <c r="F144" s="4" t="s">
+      <c r="F144" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4241,7 +4791,7 @@
       <c r="D145">
         <v>1</v>
       </c>
-      <c r="F145" s="4" t="s">
+      <c r="F145" s="7" t="s">
         <v>76</v>
       </c>
       <c r="I145" t="s">
@@ -4264,7 +4814,7 @@
       <c r="D146">
         <v>1</v>
       </c>
-      <c r="F146" s="4" t="s">
+      <c r="F146" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4281,7 +4831,7 @@
       <c r="D147">
         <v>2</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F147" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4298,7 +4848,7 @@
       <c r="D148">
         <v>1</v>
       </c>
-      <c r="F148" s="4" t="s">
+      <c r="F148" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4315,7 +4865,7 @@
       <c r="D149">
         <v>2</v>
       </c>
-      <c r="F149" s="4" t="s">
+      <c r="F149" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4332,7 +4882,7 @@
       <c r="D150">
         <v>1</v>
       </c>
-      <c r="F150" s="4" t="s">
+      <c r="F150" s="7" t="s">
         <v>130</v>
       </c>
       <c r="I150" t="s">
@@ -4352,7 +4902,7 @@
       <c r="D151">
         <v>1</v>
       </c>
-      <c r="F151" s="4" t="s">
+      <c r="F151" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4369,7 +4919,7 @@
       <c r="D152">
         <v>1</v>
       </c>
-      <c r="F152" s="4" t="s">
+      <c r="F152" s="7" t="s">
         <v>130</v>
       </c>
       <c r="I152" t="s">
@@ -4392,7 +4942,7 @@
       <c r="D153">
         <v>1</v>
       </c>
-      <c r="F153" s="4" t="s">
+      <c r="F153" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I153" t="s">
@@ -4415,7 +4965,7 @@
       <c r="D154">
         <v>1</v>
       </c>
-      <c r="F154" s="4" t="s">
+      <c r="F154" s="7" t="s">
         <v>76</v>
       </c>
       <c r="I154" t="s">
@@ -4435,7 +4985,7 @@
       <c r="D155">
         <v>1</v>
       </c>
-      <c r="F155" s="4" t="s">
+      <c r="F155" s="7" t="s">
         <v>76</v>
       </c>
       <c r="I155" t="s">
@@ -4455,7 +5005,7 @@
       <c r="D156">
         <v>1</v>
       </c>
-      <c r="F156" s="4" t="s">
+      <c r="F156" s="7" t="s">
         <v>67</v>
       </c>
       <c r="I156" t="s">
@@ -4475,7 +5025,7 @@
       <c r="D157">
         <v>1</v>
       </c>
-      <c r="F157" s="4" t="s">
+      <c r="F157" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4492,7 +5042,7 @@
       <c r="D158">
         <v>1</v>
       </c>
-      <c r="F158" s="4" t="s">
+      <c r="F158" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4509,7 +5059,7 @@
       <c r="D159">
         <v>1</v>
       </c>
-      <c r="F159" s="4" t="s">
+      <c r="F159" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4526,7 +5076,7 @@
       <c r="D160">
         <v>1</v>
       </c>
-      <c r="F160" s="4" t="s">
+      <c r="F160" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I160" t="s">
@@ -4546,7 +5096,7 @@
       <c r="D161">
         <v>1</v>
       </c>
-      <c r="F161" s="4" t="s">
+      <c r="F161" s="7" t="s">
         <v>69</v>
       </c>
       <c r="I161" t="s">
@@ -4566,7 +5116,7 @@
       <c r="D162">
         <v>1</v>
       </c>
-      <c r="F162" s="4" t="s">
+      <c r="F162" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4583,7 +5133,7 @@
       <c r="D163">
         <v>1</v>
       </c>
-      <c r="F163" s="4" t="s">
+      <c r="F163" s="7" t="s">
         <v>136</v>
       </c>
       <c r="I163" t="s">
@@ -4603,7 +5153,7 @@
       <c r="D164">
         <v>1</v>
       </c>
-      <c r="F164" s="4" t="s">
+      <c r="F164" s="7" t="s">
         <v>137</v>
       </c>
       <c r="I164" t="s">
@@ -4623,7 +5173,7 @@
       <c r="D165">
         <v>1</v>
       </c>
-      <c r="F165" s="4" t="s">
+      <c r="F165" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I165" t="s">
@@ -4646,7 +5196,7 @@
       <c r="D166">
         <v>1</v>
       </c>
-      <c r="F166" s="4" t="s">
+      <c r="F166" s="7" t="s">
         <v>70</v>
       </c>
       <c r="I166" t="s">
@@ -4666,7 +5216,7 @@
       <c r="D167">
         <v>1</v>
       </c>
-      <c r="F167" s="4" t="s">
+      <c r="F167" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4683,7 +5233,7 @@
       <c r="D168">
         <v>1</v>
       </c>
-      <c r="F168" s="4" t="s">
+      <c r="F168" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I168" t="s">
@@ -4706,7 +5256,7 @@
       <c r="D169">
         <v>1</v>
       </c>
-      <c r="F169" s="4" t="s">
+      <c r="F169" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4723,7 +5273,7 @@
       <c r="D170">
         <v>1</v>
       </c>
-      <c r="F170" s="4" t="s">
+      <c r="F170" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I170" t="s">
@@ -4743,7 +5293,7 @@
       <c r="D171">
         <v>1</v>
       </c>
-      <c r="F171" s="4" t="s">
+      <c r="F171" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I171" t="s">
@@ -4763,7 +5313,7 @@
       <c r="D172">
         <v>1</v>
       </c>
-      <c r="F172" s="4" t="s">
+      <c r="F172" s="7" t="s">
         <v>69</v>
       </c>
       <c r="I172" t="s">
@@ -4783,7 +5333,7 @@
       <c r="D173">
         <v>1</v>
       </c>
-      <c r="F173" s="4" t="s">
+      <c r="F173" s="7" t="s">
         <v>142</v>
       </c>
       <c r="I173" t="s">
@@ -4803,7 +5353,7 @@
       <c r="D174">
         <v>1</v>
       </c>
-      <c r="F174" s="4" t="s">
+      <c r="F174" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4820,7 +5370,7 @@
       <c r="D175">
         <v>1</v>
       </c>
-      <c r="F175" s="4" t="s">
+      <c r="F175" s="7" t="s">
         <v>144</v>
       </c>
       <c r="I175" t="s">
@@ -4843,7 +5393,7 @@
       <c r="D176">
         <v>1</v>
       </c>
-      <c r="F176" s="4" t="s">
+      <c r="F176" s="7" t="s">
         <v>125</v>
       </c>
       <c r="I176" t="s">
@@ -4866,7 +5416,7 @@
       <c r="D177">
         <v>1</v>
       </c>
-      <c r="F177" s="4" t="s">
+      <c r="F177" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4883,7 +5433,7 @@
       <c r="D178">
         <v>1</v>
       </c>
-      <c r="F178" s="4" t="s">
+      <c r="F178" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4900,7 +5450,7 @@
       <c r="D179">
         <v>1</v>
       </c>
-      <c r="F179" s="4" t="s">
+      <c r="F179" s="7" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4917,7 +5467,7 @@
       <c r="D180">
         <v>1</v>
       </c>
-      <c r="F180" s="4" t="s">
+      <c r="F180" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I180" t="s">
@@ -4940,7 +5490,7 @@
       <c r="D181">
         <v>1</v>
       </c>
-      <c r="F181" s="4" t="s">
+      <c r="F181" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I181" t="s">
@@ -4963,7 +5513,7 @@
       <c r="D182">
         <v>1</v>
       </c>
-      <c r="F182" s="4" t="s">
+      <c r="F182" s="7" t="s">
         <v>36</v>
       </c>
       <c r="I182" t="s">
@@ -4986,7 +5536,7 @@
       <c r="D183">
         <v>1</v>
       </c>
-      <c r="F183" s="4" t="s">
+      <c r="F183" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5003,7 +5553,7 @@
       <c r="D184">
         <v>1</v>
       </c>
-      <c r="F184" s="4" t="s">
+      <c r="F184" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5020,7 +5570,7 @@
       <c r="D185">
         <v>1</v>
       </c>
-      <c r="F185" s="4" t="s">
+      <c r="F185" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5037,7 +5587,7 @@
       <c r="D186">
         <v>1</v>
       </c>
-      <c r="F186" s="4" t="s">
+      <c r="F186" s="7" t="s">
         <v>69</v>
       </c>
       <c r="I186" t="s">
@@ -5057,7 +5607,7 @@
       <c r="D187">
         <v>1</v>
       </c>
-      <c r="F187" s="4" t="s">
+      <c r="F187" s="7" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5074,7 +5624,7 @@
       <c r="D188">
         <v>1</v>
       </c>
-      <c r="F188" s="4" t="s">
+      <c r="F188" s="7" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5091,17 +5641,17 @@
       <c r="D189">
         <v>1</v>
       </c>
-      <c r="F189" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I189" s="6" t="s">
+      <c r="F189" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I189" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O189" s="7" t="s">
+      <c r="O189" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>12</v>
       </c>
@@ -5114,7 +5664,7 @@
       <c r="D190">
         <v>1</v>
       </c>
-      <c r="F190" s="6" t="s">
+      <c r="F190" s="7" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Input Data Summary/OtherFields_From_IR_and_Source.xlsx
+++ b/Input Data Summary/OtherFields_From_IR_and_Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Input Data Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E28A7AD-9558-44FC-A84B-FED3C80DC208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D54A6D-B493-4190-B552-B965A015ABF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" xr2:uid="{7EB6CA85-DEC3-4664-8E37-E2FE4A578472}"/>
   </bookViews>
@@ -22,16 +22,40 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={637D6E38-A3AD-46B4-B9E1-F3DDF3DB88D5}</author>
     <author>tc={E9337149-1A96-4F0C-B5ED-8478ECCF1A0B}</author>
     <author>tc={B554E974-AF1E-4C0B-A269-1083DF7F456C}</author>
     <author>tc={18ADA2ED-3FA1-4C7F-8CED-3531CB770A5B}</author>
+    <author>tc={637D6E38-A3AD-46B4-B9E1-F3DDF3DB88D5}</author>
+    <author>tc={BCAD953D-5F14-47A6-B25E-A1AEA89B0296}</author>
     <author>tc={649DCBEE-EA9A-460B-BA56-8A3CBD53ACFD}</author>
-    <author>tc={BCAD953D-5F14-47A6-B25E-A1AEA89B0296}</author>
     <author>tc={BE33CE91-23F0-4C1C-B412-BD1CB99DA7B5}</author>
   </authors>
   <commentList>
-    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{637D6E38-A3AD-46B4-B9E1-F3DDF3DB88D5}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{E9337149-1A96-4F0C-B5ED-8478ECCF1A0B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Tolerate during evaluation</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="1" shapeId="0" xr:uid="{B554E974-AF1E-4C0B-A269-1083DF7F456C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Intelligence 3 ODFT source file is missing, and therefore assume it does not exist</t>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="2" shapeId="0" xr:uid="{18ADA2ED-3FA1-4C7F-8CED-3531CB770A5B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Tolerate during evaluation</t>
+      </text>
+    </comment>
+    <comment ref="I69" authorId="3" shapeId="0" xr:uid="{637D6E38-A3AD-46B4-B9E1-F3DDF3DB88D5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -39,31 +63,15 @@
     ODFT with 如客戶提供報案編號 (if any) is out of scope</t>
       </text>
     </comment>
-    <comment ref="J36" authorId="1" shapeId="0" xr:uid="{E9337149-1A96-4F0C-B5ED-8478ECCF1A0B}">
+    <comment ref="B71" authorId="4" shapeId="0" xr:uid="{BCAD953D-5F14-47A6-B25E-A1AEA89B0296}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Tolerate during evaluation</t>
+    Intelligence 2 Police witness statement source file is missing, and therefore assume it does not exist</t>
       </text>
     </comment>
-    <comment ref="B38" authorId="2" shapeId="0" xr:uid="{B554E974-AF1E-4C0B-A269-1083DF7F456C}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Intelligence 3 ODFT source file is missing, and therefore assume it does not exist</t>
-      </text>
-    </comment>
-    <comment ref="J38" authorId="3" shapeId="0" xr:uid="{18ADA2ED-3FA1-4C7F-8CED-3531CB770A5B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Tolerate during evaluation</t>
-      </text>
-    </comment>
-    <comment ref="E46" authorId="4" shapeId="0" xr:uid="{649DCBEE-EA9A-460B-BA56-8A3CBD53ACFD}">
+    <comment ref="E153" authorId="5" shapeId="0" xr:uid="{649DCBEE-EA9A-460B-BA56-8A3CBD53ACFD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,15 +79,7 @@
     on 21-Aug-2024 to buy a vacuum cleaner.</t>
       </text>
     </comment>
-    <comment ref="B53" authorId="5" shapeId="0" xr:uid="{BCAD953D-5F14-47A6-B25E-A1AEA89B0296}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Intelligence 2 Police witness statement source file is missing, and therefore assume it does not exist</t>
-      </text>
-    </comment>
-    <comment ref="B159" authorId="6" shapeId="0" xr:uid="{BE33CE91-23F0-4C1C-B412-BD1CB99DA7B5}">
+    <comment ref="B185" authorId="6" shapeId="0" xr:uid="{BE33CE91-23F0-4C1C-B412-BD1CB99DA7B5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="212">
   <si>
     <t>Type</t>
   </si>
@@ -625,6 +625,120 @@
   </si>
   <si>
     <t>投資</t>
+  </si>
+  <si>
+    <t>E-HUB-■■■</t>
+  </si>
+  <si>
+    <t>Investment (Online Gambling Website)</t>
+  </si>
+  <si>
+    <t>DIT 5-■■■■■■■</t>
+  </si>
+  <si>
+    <t>ESPS  ■■■■/2024 and WTSDIST ■■■■■■■■ (DIT 5-■■■■■■■)</t>
+  </si>
+  <si>
+    <t>Social Media Deception - Romance Scam</t>
+  </si>
+  <si>
+    <t>ESPS ■■■■/2024 and WCHDIV ■■■■■■■■ (DIT 7-■■■■■■■)</t>
+  </si>
+  <si>
+    <t>DIT 7-■■■■■■■</t>
+  </si>
+  <si>
+    <t>ESPS 1■■■■■■ and TMDIV 24■■■■■ (DIT3-■■■■■)</t>
+  </si>
+  <si>
+    <t>ESPS 1■■■■■■ and TMDIV 24■■■■■</t>
+  </si>
+  <si>
+    <t>DIT3-■■■■■</t>
+  </si>
+  <si>
+    <t>Telephone Deception - Pretend Customer Service</t>
+  </si>
+  <si>
+    <t>ESPS ■■■■■/2024 and TY RN ■■■■■■■ (DIT 4 ■■■■■■■)</t>
+  </si>
+  <si>
+    <t>ESPS ■■■■■/2024 and TY RN ■■■■■■■</t>
+  </si>
+  <si>
+    <t>DIT 4 ■■■■■■■</t>
+  </si>
+  <si>
+    <t>ESPS 7■■■■■■ and WCHDIV 25■■■■■ (DIT7-■■■■■)</t>
+  </si>
+  <si>
+    <t>ESPS ■■/2025 and KT RN ■■■■■■■■ (DIT 2 ■■■■■■)</t>
+  </si>
+  <si>
+    <t>ESPS ■■■/2025 and TSW RN ■■■■■■■■ (DIT 3 ■■■■■■)</t>
+  </si>
+  <si>
+    <t>Social Media Deception - Compensated Dating Decep</t>
+  </si>
+  <si>
+    <t>ESPS ■■■■/2025 and e-Hub ■■■■■■■■ (DIT 5-■■■■■)</t>
+  </si>
+  <si>
+    <t>DIT 5-■■■■■</t>
+  </si>
+  <si>
+    <t>ESPS ■■■/2025 and TSTDIV ■■■■■■■■ (DIT 3 ■■■■■■)</t>
+  </si>
+  <si>
+    <t>ESPS ■■■/2025 and KT RN ■■■■■■■■ (DIT 6 ■■■■■■)</t>
+  </si>
+  <si>
+    <t>DIT 6 ■■■■■■</t>
+  </si>
+  <si>
+    <t>Social Media Deception - Others</t>
+  </si>
+  <si>
+    <t>ESPS ■■/2025 and e-Hub ■■■■■■■■ (E-HUB-■■■)</t>
+  </si>
+  <si>
+    <t>ESPS ■■■/2025 and MKDIST ■■■■■■■ (DIT 1 ■■■■■■)</t>
+  </si>
+  <si>
+    <t>DIT 1 ■■■■■■</t>
+  </si>
+  <si>
+    <t>Investment Fraud - Financial instrument or Derivative</t>
+  </si>
+  <si>
+    <t>ESPS ■■■/2025 and TYDIV ■■■■■■■ (DIT 7-■■■■■■■)</t>
+  </si>
+  <si>
+    <t>ESPS 8■■■■■■ and SSDIV 25■■■■■ (DIT 8 TPDIST) (DIT8-■■■■■)</t>
+  </si>
+  <si>
+    <t>DIT8-■■■■■</t>
+  </si>
+  <si>
+    <t>ESPS ■■■/2025 and WTSDIST ■■■■■■■■ (DIT 2 ■■■■■■■)</t>
+  </si>
+  <si>
+    <t>DIT 2 ■■■■■■■</t>
+  </si>
+  <si>
+    <t>UAP- Investment</t>
+  </si>
+  <si>
+    <t>Telephone Deception  (E-banking Password Disclosed)</t>
+  </si>
+  <si>
+    <t>AP -PURCHASE</t>
+  </si>
+  <si>
+    <t>AP- Impersonation (Police/Bank)</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1288,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1196,6 +1310,7 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1577,25 +1692,25 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I20" dT="2025-06-29T21:41:30.82" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{637D6E38-A3AD-46B4-B9E1-F3DDF3DB88D5}">
+  <threadedComment ref="J2" dT="2025-06-29T22:00:48.07" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{E9337149-1A96-4F0C-B5ED-8478ECCF1A0B}">
+    <text>Tolerate during evaluation</text>
+  </threadedComment>
+  <threadedComment ref="B3" dT="2025-06-29T20:14:16.58" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{B554E974-AF1E-4C0B-A269-1083DF7F456C}">
+    <text>Intelligence 3 ODFT source file is missing, and therefore assume it does not exist</text>
+  </threadedComment>
+  <threadedComment ref="J3" dT="2025-06-29T22:00:32.59" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{18ADA2ED-3FA1-4C7F-8CED-3531CB770A5B}">
+    <text>Tolerate during evaluation</text>
+  </threadedComment>
+  <threadedComment ref="I69" dT="2025-06-29T21:41:30.82" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{637D6E38-A3AD-46B4-B9E1-F3DDF3DB88D5}">
     <text>ODFT with 如客戶提供報案編號 (if any) is out of scope</text>
   </threadedComment>
-  <threadedComment ref="J36" dT="2025-06-29T22:00:48.07" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{E9337149-1A96-4F0C-B5ED-8478ECCF1A0B}">
-    <text>Tolerate during evaluation</text>
+  <threadedComment ref="B71" dT="2025-06-29T20:22:24.97" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{BCAD953D-5F14-47A6-B25E-A1AEA89B0296}">
+    <text>Intelligence 2 Police witness statement source file is missing, and therefore assume it does not exist</text>
   </threadedComment>
-  <threadedComment ref="B38" dT="2025-06-29T20:14:16.58" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{B554E974-AF1E-4C0B-A269-1083DF7F456C}">
-    <text>Intelligence 3 ODFT source file is missing, and therefore assume it does not exist</text>
-  </threadedComment>
-  <threadedComment ref="J38" dT="2025-06-29T22:00:32.59" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{18ADA2ED-3FA1-4C7F-8CED-3531CB770A5B}">
-    <text>Tolerate during evaluation</text>
-  </threadedComment>
-  <threadedComment ref="E46" dT="2025-06-29T22:08:26.55" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{649DCBEE-EA9A-460B-BA56-8A3CBD53ACFD}">
+  <threadedComment ref="E153" dT="2025-06-29T22:08:26.55" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{649DCBEE-EA9A-460B-BA56-8A3CBD53ACFD}">
     <text>on 21-Aug-2024 to buy a vacuum cleaner.</text>
   </threadedComment>
-  <threadedComment ref="B53" dT="2025-06-29T20:22:24.97" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{BCAD953D-5F14-47A6-B25E-A1AEA89B0296}">
-    <text>Intelligence 2 Police witness statement source file is missing, and therefore assume it does not exist</text>
-  </threadedComment>
-  <threadedComment ref="B159" dT="2025-06-29T20:58:07.13" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{BE33CE91-23F0-4C1C-B412-BD1CB99DA7B5}">
+  <threadedComment ref="B185" dT="2025-06-29T20:58:07.13" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{BE33CE91-23F0-4C1C-B412-BD1CB99DA7B5}">
     <text>Intelligence 3 is Incorporated in Intelligence 1 as shown in IR, out of scope and therefore assume this Intelligence 3 does not exist</text>
   </threadedComment>
 </ThreadedComments>
@@ -1606,8 +1721,8 @@
   <dimension ref="A1:S190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U41" sqref="U41"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,34 +1791,51 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1711,63 +1843,81 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>158</v>
+      <c r="E3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
+        <v>81</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="K4" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1775,589 +1925,707 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>160</v>
+      <c r="E5" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>160</v>
+        <v>29</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>63</v>
+      <c r="E6" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
+        <v>73</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
+      <c r="E7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>108</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" t="s">
+        <v>111</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>191</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>38</v>
+        <v>191</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
+      <c r="E11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
+      <c r="E12" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
+      <c r="E13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" t="s">
-        <v>163</v>
-      </c>
-      <c r="L14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" t="s">
-        <v>163</v>
+      <c r="M14" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
+      <c r="E15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B16">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
       <c r="B17">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="C17">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="L17" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
       <c r="B18">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>44</v>
+      <c r="E18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="L18" t="s">
-        <v>45</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>46</v>
+      <c r="E19" t="s">
+        <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>32</v>
+      <c r="E21" t="s">
+        <v>39</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L21" t="s">
-        <v>49</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>167</v>
+      <c r="E22" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N22" t="s">
-        <v>51</v>
-      </c>
-      <c r="O22" t="s">
-        <v>51</v>
-      </c>
-      <c r="P22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>167</v>
+      <c r="E23" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="N23" t="s">
-        <v>53</v>
-      </c>
-      <c r="O23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N24" t="s">
-        <v>55</v>
-      </c>
-      <c r="O24" t="s">
-        <v>55</v>
-      </c>
-      <c r="P24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2365,22 +2633,22 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>168</v>
+      <c r="E25" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G25" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2388,45 +2656,45 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E26" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E27" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2434,22 +2702,22 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2457,50 +2725,50 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
       <c r="B31">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -2508,22 +2776,22 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>63</v>
+      <c r="E31" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -2531,45 +2799,45 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>63</v>
+      <c r="E32" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C33">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2577,154 +2845,91 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" t="s">
-        <v>59</v>
-      </c>
-      <c r="I34" t="s">
-        <v>59</v>
-      </c>
-      <c r="J34" t="s">
-        <v>59</v>
-      </c>
-      <c r="N34" t="s">
-        <v>60</v>
-      </c>
-      <c r="O34" t="s">
-        <v>60</v>
-      </c>
-      <c r="P34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36">
-        <v>7</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="F36" s="7" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I36" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L36" t="s">
-        <v>109</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" t="s">
-        <v>64</v>
-      </c>
-      <c r="I37" t="s">
-        <v>64</v>
-      </c>
-      <c r="J37" t="s">
-        <v>64</v>
-      </c>
-      <c r="K37" t="s">
-        <v>171</v>
-      </c>
-      <c r="L37" t="s">
-        <v>66</v>
-      </c>
-      <c r="M37" t="s">
-        <v>171</v>
-      </c>
-      <c r="N37" t="s">
-        <v>65</v>
-      </c>
-      <c r="O37" t="s">
-        <v>65</v>
-      </c>
-      <c r="P37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="2">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>23</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2733,30 +2938,21 @@
         <v>1</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H38" t="s">
-        <v>172</v>
-      </c>
-      <c r="I38" t="s">
-        <v>68</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="2">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>23</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -2764,495 +2960,528 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" t="s">
-        <v>72</v>
-      </c>
-      <c r="I40" t="s">
-        <v>72</v>
-      </c>
-      <c r="J40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="I42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>26</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>26</v>
+      </c>
+      <c r="C47">
         <v>2</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="I44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45">
-        <v>12</v>
-      </c>
-      <c r="C45">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>26</v>
+      </c>
+      <c r="C48">
         <v>3</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46">
-        <v>13</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47">
-        <v>14</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48">
-        <v>14</v>
-      </c>
-      <c r="C48">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>27</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>27</v>
+      </c>
+      <c r="C50">
         <v>2</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I48" t="s">
-        <v>75</v>
-      </c>
-      <c r="O48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49">
-        <v>14</v>
-      </c>
-      <c r="C49">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>27</v>
+      </c>
+      <c r="C51">
         <v>3</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50">
-        <v>14</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I50" t="s">
-        <v>77</v>
-      </c>
-      <c r="O50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51">
-        <v>14</v>
-      </c>
-      <c r="C51">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>30</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>30</v>
+      </c>
+      <c r="C53">
         <v>5</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52">
-        <v>14</v>
-      </c>
-      <c r="C52">
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>6</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="2">
-        <v>15</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="F53" s="7" t="s">
+      <c r="B54">
+        <v>32</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>33</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="2">
-        <v>15</v>
-      </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="F54" s="7" t="s">
+      <c r="F55" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55">
-        <v>15</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" t="s">
-        <v>77</v>
-      </c>
-      <c r="O55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G55" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E56" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B57">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
-      <c r="F57" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E57" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
       <c r="B58">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
+      <c r="E58" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="F58" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
       <c r="B59">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C59">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
+      <c r="E59" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="F59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>39</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>43</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60">
-        <v>16</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61">
-        <v>17</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
       <c r="F61" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B62">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -3260,39 +3489,45 @@
       <c r="D62">
         <v>1</v>
       </c>
+      <c r="E62" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="F62" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>46</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63">
-        <v>17</v>
-      </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I63" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G63" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
       <c r="B64">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -3300,16 +3535,22 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="F64" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E64" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B65">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -3317,16 +3558,22 @@
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="F65" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E65" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B66">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -3334,182 +3581,191 @@
       <c r="D66">
         <v>1</v>
       </c>
-      <c r="F66" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I66" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E66" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B67">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68">
         <v>4</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I67" t="s">
-        <v>75</v>
-      </c>
-      <c r="O67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68">
-        <v>18</v>
-      </c>
       <c r="C68">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
+      <c r="E68" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="F68" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B69">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
-      <c r="F69" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E69" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J69" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>13</v>
       </c>
       <c r="B70">
+        <v>12</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="2">
+        <v>15</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72">
+        <v>15</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73">
+        <v>15</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74">
         <v>20</v>
       </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="F70" s="7" t="s">
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71">
-        <v>21</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I71" t="s">
-        <v>88</v>
-      </c>
-      <c r="L71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72">
-        <v>21</v>
-      </c>
-      <c r="C72">
-        <v>2</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I72" t="s">
-        <v>91</v>
-      </c>
-      <c r="L72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73">
-        <v>21</v>
-      </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74">
-        <v>21</v>
-      </c>
-      <c r="C74">
-        <v>4</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I74" t="s">
-        <v>93</v>
-      </c>
-      <c r="O74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B75">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3518,41 +3774,35 @@
         <v>1</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B76">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I76" t="s">
-        <v>75</v>
-      </c>
-      <c r="O76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B77">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -3561,12 +3811,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B78">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3578,15 +3828,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B79">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -3595,324 +3845,513 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80" t="s">
+        <v>33</v>
+      </c>
+      <c r="J80" t="s">
+        <v>33</v>
+      </c>
+      <c r="K80" t="s">
+        <v>159</v>
+      </c>
+      <c r="L80" t="s">
+        <v>34</v>
+      </c>
+      <c r="M80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" t="s">
+        <v>73</v>
+      </c>
+      <c r="H81" t="s">
+        <v>40</v>
+      </c>
+      <c r="I81" t="s">
+        <v>40</v>
+      </c>
+      <c r="J81" t="s">
+        <v>40</v>
+      </c>
+      <c r="K81" t="s">
+        <v>163</v>
+      </c>
+      <c r="L81" t="s">
+        <v>41</v>
+      </c>
+      <c r="M81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I82" t="s">
+        <v>43</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L82" t="s">
+        <v>34</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="L83" t="s">
+        <v>45</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>15</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I84" t="s">
+        <v>48</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L84" t="s">
+        <v>49</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>9</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H85" t="s">
+        <v>72</v>
+      </c>
+      <c r="I85" t="s">
+        <v>72</v>
+      </c>
+      <c r="J85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I86" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87">
+        <v>11</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G87" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I87" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I88" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I89" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>14</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I90" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91">
+        <v>14</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I91" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92">
+        <v>14</v>
+      </c>
+      <c r="C92">
         <v>6</v>
       </c>
-      <c r="B80">
-        <v>23</v>
-      </c>
-      <c r="C80">
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <v>17</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I93" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94">
+        <v>17</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I94" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>17</v>
+      </c>
+      <c r="C95">
         <v>3</v>
       </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81">
-        <v>23</v>
-      </c>
-      <c r="C81">
-        <v>4</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82">
-        <v>23</v>
-      </c>
-      <c r="C82">
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I95" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96">
+        <v>18</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I96" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>18</v>
+      </c>
+      <c r="C97">
         <v>5</v>
       </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83">
-        <v>23</v>
-      </c>
-      <c r="C83">
-        <v>6</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>12</v>
-      </c>
-      <c r="B84">
-        <v>23</v>
-      </c>
-      <c r="C84">
-        <v>7</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>12</v>
-      </c>
-      <c r="B85">
-        <v>23</v>
-      </c>
-      <c r="C85">
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I97" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>8</v>
       </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>12</v>
-      </c>
-      <c r="B86">
-        <v>23</v>
-      </c>
-      <c r="C86">
-        <v>9</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87">
-        <v>23</v>
-      </c>
-      <c r="C87">
-        <v>10</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88">
-        <v>23</v>
-      </c>
-      <c r="C88">
-        <v>11</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89">
-        <v>23</v>
-      </c>
-      <c r="C89">
-        <v>12</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90">
-        <v>24</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B91">
-        <v>24</v>
-      </c>
-      <c r="C91">
-        <v>2</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92">
-        <v>24</v>
-      </c>
-      <c r="C92">
-        <v>3</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93">
-        <v>24</v>
-      </c>
-      <c r="C93">
-        <v>4</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>12</v>
-      </c>
-      <c r="B94">
-        <v>24</v>
-      </c>
-      <c r="C94">
-        <v>5</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>12</v>
-      </c>
-      <c r="B95">
-        <v>24</v>
-      </c>
-      <c r="C95">
-        <v>6</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>11</v>
-      </c>
-      <c r="B96">
-        <v>24</v>
-      </c>
-      <c r="C96">
-        <v>7</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I96" t="s">
-        <v>97</v>
-      </c>
-      <c r="O96" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97">
-        <v>25</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>12</v>
-      </c>
       <c r="B98">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -3921,257 +4360,287 @@
         <v>1</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="I98" t="s">
+        <v>91</v>
+      </c>
+      <c r="L98" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B99">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C99">
-        <v>3</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I99" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="L99" t="s">
-        <v>102</v>
-      </c>
-      <c r="O99" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100">
+        <v>30</v>
+      </c>
+      <c r="C100">
+        <v>10</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I100" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101">
+        <v>31</v>
+      </c>
+      <c r="C101">
         <v>6</v>
       </c>
-      <c r="B100">
-        <v>26</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I101" t="s">
+        <v>75</v>
+      </c>
+      <c r="L101" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102">
+        <v>32</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I102" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103">
+        <v>33</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I103" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <v>33</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I104" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105">
+        <v>33</v>
+      </c>
+      <c r="C105">
         <v>6</v>
       </c>
-      <c r="B101">
-        <v>26</v>
-      </c>
-      <c r="C101">
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I105" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106">
+        <v>38</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I106" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107">
+        <v>38</v>
+      </c>
+      <c r="C107">
+        <v>6</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I107" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="2">
+        <v>40</v>
+      </c>
+      <c r="C108">
         <v>2</v>
       </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102">
-        <v>26</v>
-      </c>
-      <c r="C102">
-        <v>3</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>6</v>
-      </c>
-      <c r="B103">
-        <v>27</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104">
-        <v>27</v>
-      </c>
-      <c r="C104">
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I108" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109">
+        <v>42</v>
+      </c>
+      <c r="C109">
         <v>2</v>
       </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>6</v>
-      </c>
-      <c r="B105">
-        <v>27</v>
-      </c>
-      <c r="C105">
-        <v>3</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>12</v>
-      </c>
-      <c r="B106">
-        <v>27</v>
-      </c>
-      <c r="C106">
-        <v>4</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>12</v>
-      </c>
-      <c r="B107">
-        <v>27</v>
-      </c>
-      <c r="C107">
-        <v>5</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>12</v>
-      </c>
-      <c r="B108">
-        <v>27</v>
-      </c>
-      <c r="C108">
-        <v>6</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>4</v>
-      </c>
-      <c r="B109">
-        <v>28</v>
-      </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-      <c r="D109" t="s">
-        <v>10</v>
+      <c r="D109">
+        <v>1</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="I109" t="s">
-        <v>110</v>
-      </c>
-      <c r="L109" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>8</v>
       </c>
       <c r="B110">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111">
+        <v>43</v>
+      </c>
+      <c r="C111">
         <v>2</v>
       </c>
-      <c r="D110" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I110" t="s">
-        <v>112</v>
-      </c>
-      <c r="L110" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111">
-        <v>29</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
       <c r="D111">
         <v>1</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="I111" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B112">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -4180,15 +4649,18 @@
         <v>1</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="I112" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B113">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -4197,32 +4669,41 @@
         <v>1</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="I113" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B114">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="I114" t="s">
+        <v>145</v>
+      </c>
+      <c r="L114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B115">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -4231,15 +4712,21 @@
         <v>1</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="I115" t="s">
+        <v>150</v>
+      </c>
+      <c r="L115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B116">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C116">
         <v>3</v>
@@ -4248,115 +4735,238 @@
         <v>1</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="I116" t="s">
+        <v>152</v>
+      </c>
+      <c r="L116" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>11</v>
       </c>
       <c r="B117">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D117">
         <v>1</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I117" s="3" t="s">
-        <v>116</v>
+      <c r="G117" t="s">
+        <v>31</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I117" t="s">
+        <v>50</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N117" t="s">
+        <v>51</v>
       </c>
       <c r="O117" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="P117" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B118">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C118">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D118">
         <v>1</v>
       </c>
+      <c r="E118" s="17" t="s">
+        <v>167</v>
+      </c>
       <c r="F118" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G118" t="s">
+        <v>31</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I118" t="s">
+        <v>52</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N118" t="s">
+        <v>53</v>
+      </c>
+      <c r="O118" t="s">
+        <v>53</v>
+      </c>
+      <c r="P118" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>11</v>
       </c>
       <c r="B119">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C119">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D119">
         <v>1</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="G119" t="s">
+        <v>31</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="I119" t="s">
-        <v>116</v>
+        <v>54</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N119" t="s">
+        <v>55</v>
       </c>
       <c r="O119" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="P119" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B120">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" t="s">
+        <v>59</v>
+      </c>
+      <c r="I120" t="s">
+        <v>59</v>
+      </c>
+      <c r="J120" t="s">
+        <v>59</v>
+      </c>
+      <c r="N120" t="s">
+        <v>60</v>
+      </c>
+      <c r="O120" t="s">
+        <v>60</v>
+      </c>
+      <c r="P120" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121">
         <v>7</v>
       </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>12</v>
-      </c>
-      <c r="B121">
-        <v>30</v>
-      </c>
       <c r="C121">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E121" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121" t="s">
+        <v>64</v>
+      </c>
+      <c r="I121" t="s">
+        <v>64</v>
+      </c>
+      <c r="J121" t="s">
+        <v>64</v>
+      </c>
+      <c r="K121" t="s">
+        <v>171</v>
+      </c>
+      <c r="L121" t="s">
+        <v>66</v>
+      </c>
+      <c r="M121" t="s">
+        <v>171</v>
+      </c>
+      <c r="N121" t="s">
+        <v>65</v>
+      </c>
+      <c r="O121" t="s">
+        <v>65</v>
+      </c>
+      <c r="P121" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B122">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C122">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -4364,136 +4974,166 @@
       <c r="F122" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I122" t="s">
+        <v>75</v>
+      </c>
+      <c r="O122" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B123">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C123">
+        <v>4</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I123" t="s">
+        <v>77</v>
+      </c>
+      <c r="O123" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124">
+        <v>15</v>
+      </c>
+      <c r="C124">
+        <v>4</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I124" t="s">
+        <v>77</v>
+      </c>
+      <c r="O124" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125">
+        <v>18</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I125" t="s">
+        <v>75</v>
+      </c>
+      <c r="O125" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126">
+        <v>21</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I126" t="s">
+        <v>93</v>
+      </c>
+      <c r="O126" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127">
+        <v>22</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I127" t="s">
+        <v>75</v>
+      </c>
+      <c r="O127" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128">
+        <v>23</v>
+      </c>
+      <c r="C128">
         <v>10</v>
       </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-      <c r="F123" s="7" t="s">
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="F128" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="I123" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>4</v>
-      </c>
-      <c r="B124">
-        <v>31</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I124" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>12</v>
-      </c>
-      <c r="B125">
-        <v>31</v>
-      </c>
-      <c r="C125">
-        <v>2</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>12</v>
-      </c>
-      <c r="B126">
-        <v>31</v>
-      </c>
-      <c r="C126">
-        <v>3</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>12</v>
-      </c>
-      <c r="B127">
-        <v>31</v>
-      </c>
-      <c r="C127">
-        <v>4</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>12</v>
-      </c>
-      <c r="B128">
-        <v>31</v>
-      </c>
-      <c r="C128">
-        <v>5</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B129">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C129">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D129">
         <v>1</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="I129" t="s">
-        <v>75</v>
-      </c>
-      <c r="L129" t="s">
-        <v>49</v>
+        <v>97</v>
+      </c>
+      <c r="O129" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
@@ -4501,10 +5141,10 @@
         <v>11</v>
       </c>
       <c r="B130">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C130">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -4513,81 +5153,105 @@
         <v>31</v>
       </c>
       <c r="I130" t="s">
-        <v>75</v>
+        <v>100</v>
+      </c>
+      <c r="L130" t="s">
+        <v>102</v>
       </c>
       <c r="O130" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B131">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I131" t="s">
-        <v>75</v>
+        <v>36</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O131" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132">
+        <v>30</v>
+      </c>
+      <c r="C132">
         <v>6</v>
       </c>
-      <c r="B132">
-        <v>32</v>
-      </c>
-      <c r="C132">
-        <v>2</v>
-      </c>
       <c r="D132">
         <v>1</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>123</v>
+        <v>36</v>
+      </c>
+      <c r="I132" t="s">
+        <v>116</v>
+      </c>
+      <c r="O132" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B133">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D133">
         <v>1</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="I133" t="s">
+        <v>75</v>
+      </c>
+      <c r="O133" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B134">
         <v>33</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>70</v>
+        <v>31</v>
+      </c>
+      <c r="I134" t="s">
+        <v>75</v>
+      </c>
+      <c r="O134" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
@@ -4595,90 +5259,96 @@
         <v>11</v>
       </c>
       <c r="B135">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C135">
+        <v>5</v>
+      </c>
+      <c r="D135">
         <v>2</v>
       </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
       <c r="F135" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="I135" t="s">
-        <v>75</v>
-      </c>
-      <c r="O135" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B136">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D136">
         <v>1</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="I136" t="s">
+        <v>75</v>
+      </c>
+      <c r="O136" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B137">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C137">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D137">
         <v>1</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="I137" t="s">
         <v>75</v>
       </c>
+      <c r="O137" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B138">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C138">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="I138" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="O138" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B139">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C139">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -4687,340 +5357,394 @@
         <v>125</v>
       </c>
       <c r="I139" t="s">
-        <v>85</v>
+        <v>147</v>
+      </c>
+      <c r="O139" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B140">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D140">
         <v>1</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>126</v>
+        <v>36</v>
+      </c>
+      <c r="I140" t="s">
+        <v>153</v>
+      </c>
+      <c r="O140" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B141">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D141">
         <v>1</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>126</v>
+        <v>31</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O141" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B142">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="C142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D142">
         <v>1</v>
       </c>
-      <c r="F142" s="7" t="s">
-        <v>71</v>
+      <c r="E142" t="s">
+        <v>158</v>
+      </c>
+      <c r="F142" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G142" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B143">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143">
         <v>1</v>
       </c>
+      <c r="E143" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F143" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I143" t="s">
-        <v>127</v>
+        <v>36</v>
+      </c>
+      <c r="G143" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B144">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>5</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F144" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G144" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145">
         <v>4</v>
       </c>
-      <c r="B145">
-        <v>37</v>
-      </c>
       <c r="C145">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D145">
         <v>1</v>
       </c>
+      <c r="E145" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F145" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I145" t="s">
-        <v>128</v>
-      </c>
-      <c r="L145" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G145" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B146">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D146">
         <v>1</v>
       </c>
+      <c r="E146" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F146" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G146" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>12</v>
       </c>
       <c r="B147">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G147" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>12</v>
       </c>
       <c r="B148">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D148">
         <v>1</v>
       </c>
+      <c r="E148" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F148" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G148" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B149">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G149" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150">
         <v>5</v>
       </c>
-      <c r="D149">
-        <v>2</v>
-      </c>
-      <c r="F149" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>4</v>
-      </c>
-      <c r="B150">
-        <v>38</v>
-      </c>
       <c r="C150">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D150">
         <v>1</v>
       </c>
+      <c r="E150" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F150" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I150" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G150" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>12</v>
       </c>
       <c r="B151">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C151">
+        <v>8</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G151" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="2">
+        <v>8</v>
+      </c>
+      <c r="C152">
         <v>2</v>
       </c>
-      <c r="D151">
-        <v>1</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>4</v>
-      </c>
-      <c r="B152">
-        <v>38</v>
-      </c>
-      <c r="C152">
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F152" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G152" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153">
+        <v>13</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F153" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G153" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="2">
+        <v>15</v>
+      </c>
+      <c r="C154">
         <v>3</v>
       </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I152" t="s">
-        <v>132</v>
-      </c>
-      <c r="L152" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>11</v>
-      </c>
-      <c r="B153">
-        <v>38</v>
-      </c>
-      <c r="C153">
-        <v>4</v>
-      </c>
-      <c r="D153">
-        <v>1</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I153" t="s">
-        <v>75</v>
-      </c>
-      <c r="O153" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>8</v>
-      </c>
-      <c r="B154">
-        <v>38</v>
-      </c>
-      <c r="C154">
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155">
+        <v>18</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156">
+        <v>23</v>
+      </c>
+      <c r="C156">
         <v>5</v>
       </c>
-      <c r="D154">
-        <v>1</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I154" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>8</v>
-      </c>
-      <c r="B155">
-        <v>38</v>
-      </c>
-      <c r="C155">
-        <v>6</v>
-      </c>
-      <c r="D155">
-        <v>1</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I155" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>4</v>
-      </c>
-      <c r="B156">
-        <v>39</v>
-      </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
       <c r="D156">
         <v>1</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I156" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>12</v>
       </c>
       <c r="B157">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -5029,32 +5753,32 @@
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B158">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D158">
         <v>1</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>12</v>
       </c>
-      <c r="B159" s="2">
-        <v>40</v>
+      <c r="B159">
+        <v>23</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -5063,209 +5787,182 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>8</v>
-      </c>
-      <c r="B160" s="2">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="B160">
+        <v>23</v>
       </c>
       <c r="C160">
+        <v>11</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161">
+        <v>24</v>
+      </c>
+      <c r="C161">
         <v>2</v>
       </c>
-      <c r="D160">
-        <v>1</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I160" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162">
+        <v>24</v>
+      </c>
+      <c r="C162">
+        <v>5</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163">
+        <v>24</v>
+      </c>
+      <c r="C163">
+        <v>6</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164">
+        <v>25</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165">
+        <v>27</v>
+      </c>
+      <c r="C165">
         <v>4</v>
       </c>
-      <c r="B161">
-        <v>41</v>
-      </c>
-      <c r="C161">
-        <v>1</v>
-      </c>
-      <c r="D161">
-        <v>1</v>
-      </c>
-      <c r="F161" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I161" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>13</v>
-      </c>
-      <c r="B162">
-        <v>42</v>
-      </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-      <c r="D162">
-        <v>1</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>8</v>
-      </c>
-      <c r="B163">
-        <v>42</v>
-      </c>
-      <c r="C163">
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166">
+        <v>27</v>
+      </c>
+      <c r="C166">
+        <v>5</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167">
+        <v>27</v>
+      </c>
+      <c r="C167">
+        <v>6</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168">
+        <v>29</v>
+      </c>
+      <c r="C168">
         <v>2</v>
       </c>
-      <c r="D163">
-        <v>1</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I163" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>8</v>
-      </c>
-      <c r="B164">
-        <v>42</v>
-      </c>
-      <c r="C164">
-        <v>3</v>
-      </c>
-      <c r="D164">
-        <v>1</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I164" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>11</v>
-      </c>
-      <c r="B165">
-        <v>43</v>
-      </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-      <c r="D165">
-        <v>1</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I165" t="s">
-        <v>75</v>
-      </c>
-      <c r="O165" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>8</v>
-      </c>
-      <c r="B166">
-        <v>43</v>
-      </c>
-      <c r="C166">
-        <v>2</v>
-      </c>
-      <c r="D166">
-        <v>1</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I166" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>6</v>
-      </c>
-      <c r="B167">
-        <v>43</v>
-      </c>
-      <c r="C167">
-        <v>3</v>
-      </c>
-      <c r="D167">
-        <v>1</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>11</v>
-      </c>
-      <c r="B168">
-        <v>43</v>
-      </c>
-      <c r="C168">
-        <v>4</v>
-      </c>
       <c r="D168">
         <v>1</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I168" t="s">
-        <v>75</v>
-      </c>
-      <c r="O168" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>12</v>
       </c>
       <c r="B169">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D169">
         <v>1</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B170">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C170">
         <v>2</v>
@@ -5274,18 +5971,15 @@
         <v>1</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I170" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B171">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C171">
         <v>3</v>
@@ -5294,124 +5988,103 @@
         <v>1</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I171" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B172">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D172">
         <v>1</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I172" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B173">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D173">
         <v>1</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I173" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B174">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C174">
+        <v>9</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175">
+        <v>31</v>
+      </c>
+      <c r="C175">
         <v>2</v>
       </c>
-      <c r="D174">
-        <v>1</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>8</v>
-      </c>
-      <c r="B175">
-        <v>46</v>
-      </c>
-      <c r="C175">
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176">
+        <v>31</v>
+      </c>
+      <c r="C176">
         <v>3</v>
       </c>
-      <c r="D175">
-        <v>1</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="I175" t="s">
-        <v>145</v>
-      </c>
-      <c r="L175" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>11</v>
-      </c>
-      <c r="B176">
-        <v>46</v>
-      </c>
-      <c r="C176">
-        <v>4</v>
-      </c>
       <c r="D176">
         <v>1</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I176" t="s">
-        <v>147</v>
-      </c>
-      <c r="O176" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>12</v>
       </c>
       <c r="B177">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C177">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -5420,92 +6093,80 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B178">
-        <v>46</v>
-      </c>
-      <c r="C178" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="C178">
+        <v>5</v>
       </c>
       <c r="D178">
         <v>1</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B179">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D179">
         <v>1</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B180">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D180">
         <v>1</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I180" t="s">
-        <v>150</v>
-      </c>
-      <c r="L180" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B181">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C181">
         <v>3</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I181" t="s">
-        <v>152</v>
-      </c>
-      <c r="L181" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B182">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C182">
         <v>4</v>
@@ -5514,24 +6175,18 @@
         <v>1</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I182" t="s">
-        <v>153</v>
-      </c>
-      <c r="O182" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>12</v>
       </c>
       <c r="B183">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -5540,12 +6195,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>12</v>
       </c>
       <c r="B184">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C184">
         <v>2</v>
@@ -5557,101 +6212,92 @@
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>13</v>
-      </c>
-      <c r="B185">
+        <v>12</v>
+      </c>
+      <c r="B185" s="2">
+        <v>40</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="F185" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186">
+        <v>44</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="F186" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>12</v>
+      </c>
+      <c r="B187">
+        <v>46</v>
+      </c>
+      <c r="C187">
+        <v>7</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188">
         <v>48</v>
       </c>
-      <c r="C185">
-        <v>3</v>
-      </c>
-      <c r="D185">
-        <v>1</v>
-      </c>
-      <c r="F185" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>4</v>
-      </c>
-      <c r="B186">
-        <v>49</v>
-      </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-      <c r="D186">
-        <v>1</v>
-      </c>
-      <c r="F186" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I186" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>6</v>
-      </c>
-      <c r="B187">
-        <v>49</v>
-      </c>
-      <c r="C187">
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="F188" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189">
+        <v>48</v>
+      </c>
+      <c r="C189">
         <v>2</v>
       </c>
-      <c r="D187">
-        <v>1</v>
-      </c>
-      <c r="F187" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>6</v>
-      </c>
-      <c r="B188">
-        <v>49</v>
-      </c>
-      <c r="C188">
-        <v>3</v>
-      </c>
-      <c r="D188">
-        <v>1</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>11</v>
-      </c>
-      <c r="B189">
-        <v>50</v>
-      </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
       <c r="D189">
         <v>1</v>
       </c>
       <c r="F189" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I189" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O189" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>12</v>
       </c>
@@ -5669,7 +6315,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K190">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S190">
+    <sortCondition ref="A2:A190"/>
     <sortCondition ref="B2:B190"/>
     <sortCondition ref="C2:C190"/>
   </sortState>

--- a/Input Data Summary/OtherFields_From_IR_and_Source.xlsx
+++ b/Input Data Summary/OtherFields_From_IR_and_Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Input Data Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D54A6D-B493-4190-B552-B965A015ABF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A3157F-2EC4-40EC-A4B7-7A931D41D31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" xr2:uid="{7EB6CA85-DEC3-4664-8E37-E2FE4A578472}"/>
   </bookViews>
@@ -25,10 +25,19 @@
     <author>tc={E9337149-1A96-4F0C-B5ED-8478ECCF1A0B}</author>
     <author>tc={B554E974-AF1E-4C0B-A269-1083DF7F456C}</author>
     <author>tc={18ADA2ED-3FA1-4C7F-8CED-3531CB770A5B}</author>
+    <author>tc={72CE9C3D-7D45-4BB8-B5E0-4B3D93138265}</author>
     <author>tc={637D6E38-A3AD-46B4-B9E1-F3DDF3DB88D5}</author>
     <author>tc={BCAD953D-5F14-47A6-B25E-A1AEA89B0296}</author>
+    <author>tc={8B7F5342-D63F-4241-984F-A242CA3F4EA1}</author>
+    <author>tc={B6A028B5-838E-4249-9448-73C51777FB88}</author>
+    <author>tc={BB3BC9D1-F045-49C5-A333-E3AF0158AFF3}</author>
+    <author>tc={DAF88851-E959-412B-A735-404D50891443}</author>
+    <author>tc={AF888F90-F344-474D-B33A-0BBEE5773157}</author>
+    <author>tc={40C0854A-A706-457C-8932-C9D8425D4E7C}</author>
     <author>tc={649DCBEE-EA9A-460B-BA56-8A3CBD53ACFD}</author>
+    <author>tc={6BB87723-F2C9-4083-9CDF-D2CD45A0EEC5}</author>
     <author>tc={BE33CE91-23F0-4C1C-B412-BD1CB99DA7B5}</author>
+    <author>tc={5C309FF5-813D-43B4-B87C-D2AF5013ED88}</author>
   </authors>
   <commentList>
     <comment ref="J2" authorId="0" shapeId="0" xr:uid="{E9337149-1A96-4F0C-B5ED-8478ECCF1A0B}">
@@ -55,7 +64,15 @@
     Tolerate during evaluation</t>
       </text>
     </comment>
-    <comment ref="I69" authorId="3" shapeId="0" xr:uid="{637D6E38-A3AD-46B4-B9E1-F3DDF3DB88D5}">
+    <comment ref="G69" authorId="3" shapeId="0" xr:uid="{72CE9C3D-7D45-4BB8-B5E0-4B3D93138265}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Better tolerate these variations during evaluation</t>
+      </text>
+    </comment>
+    <comment ref="I69" authorId="4" shapeId="0" xr:uid="{637D6E38-A3AD-46B4-B9E1-F3DDF3DB88D5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +80,7 @@
     ODFT with 如客戶提供報案編號 (if any) is out of scope</t>
       </text>
     </comment>
-    <comment ref="B71" authorId="4" shapeId="0" xr:uid="{BCAD953D-5F14-47A6-B25E-A1AEA89B0296}">
+    <comment ref="B71" authorId="5" shapeId="0" xr:uid="{BCAD953D-5F14-47A6-B25E-A1AEA89B0296}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +88,55 @@
     Intelligence 2 Police witness statement source file is missing, and therefore assume it does not exist</t>
       </text>
     </comment>
-    <comment ref="E153" authorId="5" shapeId="0" xr:uid="{649DCBEE-EA9A-460B-BA56-8A3CBD53ACFD}">
+    <comment ref="G77" authorId="6" shapeId="0" xr:uid="{8B7F5342-D63F-4241-984F-A242CA3F4EA1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Better tolerate these variations during evaluation</t>
+      </text>
+    </comment>
+    <comment ref="G78" authorId="7" shapeId="0" xr:uid="{B6A028B5-838E-4249-9448-73C51777FB88}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Better tolerate these variations during evaluation</t>
+      </text>
+    </comment>
+    <comment ref="G103" authorId="8" shapeId="0" xr:uid="{BB3BC9D1-F045-49C5-A333-E3AF0158AFF3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Tolerate during evaluation</t>
+      </text>
+    </comment>
+    <comment ref="G109" authorId="9" shapeId="0" xr:uid="{DAF88851-E959-412B-A735-404D50891443}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Tolerate during evaluation</t>
+      </text>
+    </comment>
+    <comment ref="G110" authorId="10" shapeId="0" xr:uid="{AF888F90-F344-474D-B33A-0BBEE5773157}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Tolerate during evaluation</t>
+      </text>
+    </comment>
+    <comment ref="G117" authorId="11" shapeId="0" xr:uid="{40C0854A-A706-457C-8932-C9D8425D4E7C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    No story/fraud type provided to search warrant</t>
+      </text>
+    </comment>
+    <comment ref="E153" authorId="12" shapeId="0" xr:uid="{649DCBEE-EA9A-460B-BA56-8A3CBD53ACFD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -79,7 +144,15 @@
     on 21-Aug-2024 to buy a vacuum cleaner.</t>
       </text>
     </comment>
-    <comment ref="B185" authorId="6" shapeId="0" xr:uid="{BE33CE91-23F0-4C1C-B412-BD1CB99DA7B5}">
+    <comment ref="E154" authorId="13" shapeId="0" xr:uid="{6BB87723-F2C9-4083-9CDF-D2CD45A0EEC5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    RECEIVED BOGUS CALL IMPERSONATING TO BE CHINA MOBILE STAFF CLAIMING</t>
+      </text>
+    </comment>
+    <comment ref="B185" authorId="14" shapeId="0" xr:uid="{BE33CE91-23F0-4C1C-B412-BD1CB99DA7B5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -87,12 +160,20 @@
     Intelligence 3 is Incorporated in Intelligence 1 as shown in IR, out of scope and therefore assume this Intelligence 3 does not exist</t>
       </text>
     </comment>
+    <comment ref="E190" authorId="15" shapeId="0" xr:uid="{5C309FF5-813D-43B4-B87C-D2AF5013ED88}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not provided should be correct instead, but let’s leave it out of scope for now</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="280">
   <si>
     <t>Type</t>
   </si>
@@ -290,9 +371,6 @@
   </si>
   <si>
     <t>67■■</t>
-  </si>
-  <si>
-    <t>District Investigation Team 7, Sha Tin District</t>
   </si>
   <si>
     <t>Social Media Deception</t>
@@ -588,12 +666,6 @@
     <t>UAP-Impersonation (Other)</t>
   </si>
   <si>
-    <t>AP-Purchase</t>
-  </si>
-  <si>
-    <t>AP-Purchase (Online Shopping Fraud)</t>
-  </si>
-  <si>
     <t>District Investigation Team 4, Western District, Aberdeen Police Station</t>
   </si>
   <si>
@@ -624,9 +696,6 @@
     <t>ESPS ■■■■/2024 and ERC24100■■■■■■■■ (E-HUB-■■■)</t>
   </si>
   <si>
-    <t>投資</t>
-  </si>
-  <si>
     <t>E-HUB-■■■</t>
   </si>
   <si>
@@ -739,13 +808,229 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>Online Shopping Fraud</t>
+  </si>
+  <si>
+    <t>Smishing Attack</t>
+  </si>
+  <si>
+    <t>AP-Impersonation (Others);;;Smishing Attack</t>
+  </si>
+  <si>
+    <t>AP-Purchase;;;Online Shopping Fraud</t>
+  </si>
+  <si>
+    <t>District Investigation Team 2, Kwai Tsing District, Kwai Chung Police Station</t>
+  </si>
+  <si>
+    <t>District Investigation Team 4, Mong Kok District, Mong Kok Police Station</t>
+  </si>
+  <si>
+    <t>District Investigation Team 3, Tuen Mun District, Tuen Mun Police Station</t>
+  </si>
+  <si>
+    <t>District Investigation Team 5, Mong Kok District, Mong Kok Police Station</t>
+  </si>
+  <si>
+    <t>District Investigation Team 2, Eastern District, North Point Police Station</t>
+  </si>
+  <si>
+    <t>District Investigation Team 4, Yuen Long District</t>
+  </si>
+  <si>
+    <t>District Investigation Team 3, Kwai Tsing District, Kwai Chung Police Station</t>
+  </si>
+  <si>
+    <t>District Investigation Team 3, Shamshuipo District, Sham Shui Po Police Station</t>
+  </si>
+  <si>
+    <t>District Investigation Team 6, Eastern District, North Point Police Station</t>
+  </si>
+  <si>
+    <t>District Investigation Team 2, Tai Po District, Tai Po Police Station</t>
+  </si>
+  <si>
+    <t>NP RN 001</t>
+  </si>
+  <si>
+    <t>District Investigation Team 8, Eastern District, North Point Police Station</t>
+  </si>
+  <si>
+    <t>TM RN 002</t>
+  </si>
+  <si>
+    <t>District Technology &amp; Financial Crime Unit, Tuen Mun, Tuen Mun District, Tuen Mun Police Station</t>
+  </si>
+  <si>
+    <t>District Investigation Team 4, Kwai Tsing District, Kwai Chung Police Station</t>
+  </si>
+  <si>
+    <t>District Investigation Team 7, Wan Chai District, Wan Chai Police Station</t>
+  </si>
+  <si>
+    <t>District Investigation Team 6, Central District, Central Police Station</t>
+  </si>
+  <si>
+    <t>District Investigation Team 5, Central District, Central Police Station</t>
+  </si>
+  <si>
+    <t>District Investigation Team 9, Yuen Long District</t>
+  </si>
+  <si>
+    <t>Bounced Cheque</t>
+  </si>
+  <si>
+    <t>Compensated dating</t>
+  </si>
+  <si>
+    <t>Blackmail</t>
+  </si>
+  <si>
+    <t>District Investigation Team 1, Shatin District, Shatin Police Station</t>
+  </si>
+  <si>
+    <t>District Technology &amp; Financial Crime Unit, Tuen Mun District</t>
+  </si>
+  <si>
+    <t>District Investigation Team 3, Kowloon City District, Hung Hom Police Station</t>
+  </si>
+  <si>
+    <t>District Investigation Team 6, Kwun Tong District, Kwun Tong Police Station</t>
+  </si>
+  <si>
+    <t>District Investigation Team 3, Tai Po District, Tai Po Police Station</t>
+  </si>
+  <si>
+    <t>District Investigation Team 8, Yau Tsim District, Tsim Sha Tsui Police Station</t>
+  </si>
+  <si>
+    <t>District Investigation Team 9, Mong Kok District, Mong Kok Police Station</t>
+  </si>
+  <si>
+    <t>District Investigation Team 4, Sau Mau Ping District, Sau Mau Ping Police Station</t>
+  </si>
+  <si>
+    <t>District Technology and Financial Crime Squad, Kwun Tong District, Hong Kong Police Force</t>
+  </si>
+  <si>
+    <t>PC 1■■■■</t>
+  </si>
+  <si>
+    <t>PC 2■■■■</t>
+  </si>
+  <si>
+    <t>District Technology and Financial Crime Squad Yuen Long District, Hong Kong Police Force</t>
+  </si>
+  <si>
+    <t>PC ■■■■■</t>
+  </si>
+  <si>
+    <t>District Crime Investigation 1 Shatin Police Station</t>
+  </si>
+  <si>
+    <t>PC 6■■■■</t>
+  </si>
+  <si>
+    <t>District Investigation Team 8, Shatin District</t>
+  </si>
+  <si>
+    <t>District Investigation Team 4, Tuen Mun District, Hong Kong Police Force</t>
+  </si>
+  <si>
+    <t>Miscellaneous Enquiries Sub Unit of Kwai Chung Division</t>
+  </si>
+  <si>
+    <t>Obtaining Property by Deception</t>
+  </si>
+  <si>
+    <t>TM 001</t>
+  </si>
+  <si>
+    <t>District Investigation Team 4, Tuen Mun District, Hong Kong District</t>
+  </si>
+  <si>
+    <t>PC■■■■■</t>
+  </si>
+  <si>
+    <t>DIT 4 KWTDIST</t>
+  </si>
+  <si>
+    <t>01■■■</t>
+  </si>
+  <si>
+    <t>3■■■</t>
+  </si>
+  <si>
+    <t>Kowloon City District</t>
+  </si>
+  <si>
+    <t>12■■■</t>
+  </si>
+  <si>
+    <t>District Investigation Team 6, Kowloon City Police District</t>
+  </si>
+  <si>
+    <t>SGT 2■■■■</t>
+  </si>
+  <si>
+    <t>District Technology and Financial Crime Squad of Tai Po Police District</t>
+  </si>
+  <si>
+    <t>SGT 5■■■■</t>
+  </si>
+  <si>
+    <t>Dealing with property known or believed to represent proceeds of indictable offence</t>
+  </si>
+  <si>
+    <t>District Investigation Team 5 of Central District</t>
+  </si>
+  <si>
+    <t>District Investigation Team 4 Tuen Mun District, New Territories North</t>
+  </si>
+  <si>
+    <t>District Crime Squad Team 1 of Western District</t>
+  </si>
+  <si>
+    <t>District investigation Team 5 Western District</t>
+  </si>
+  <si>
+    <t>DTFCS 2 YLDIST of the Hong Kong Police Force</t>
+  </si>
+  <si>
+    <t>District Investigation Team 4 of Western District</t>
+  </si>
+  <si>
+    <t>DIT 8 KCDIST</t>
+  </si>
+  <si>
+    <t>00■■■</t>
+  </si>
+  <si>
+    <t>DTFCS 2 YLDIST</t>
+  </si>
+  <si>
+    <t>Fraud, Contrary to Section 16 (A) of the Theft Ordinance, Cap.134, Laws of Hong Kong</t>
+  </si>
+  <si>
+    <t>District Crime Squad One, Tuen Mun Police District</t>
+  </si>
+  <si>
+    <t>IMPERSONATING</t>
+  </si>
+  <si>
+    <t>Money Laundering</t>
+  </si>
+  <si>
+    <t>External Fraud;;;投資</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,12 +1172,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -911,7 +1190,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1094,6 +1373,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,7 +1573,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1296,21 +1581,24 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1701,17 +1989,44 @@
   <threadedComment ref="J3" dT="2025-06-29T22:00:32.59" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{18ADA2ED-3FA1-4C7F-8CED-3531CB770A5B}">
     <text>Tolerate during evaluation</text>
   </threadedComment>
+  <threadedComment ref="G69" dT="2025-06-29T22:49:22.06" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{72CE9C3D-7D45-4BB8-B5E0-4B3D93138265}">
+    <text>Better tolerate these variations during evaluation</text>
+  </threadedComment>
   <threadedComment ref="I69" dT="2025-06-29T21:41:30.82" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{637D6E38-A3AD-46B4-B9E1-F3DDF3DB88D5}">
     <text>ODFT with 如客戶提供報案編號 (if any) is out of scope</text>
   </threadedComment>
   <threadedComment ref="B71" dT="2025-06-29T20:22:24.97" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{BCAD953D-5F14-47A6-B25E-A1AEA89B0296}">
     <text>Intelligence 2 Police witness statement source file is missing, and therefore assume it does not exist</text>
   </threadedComment>
+  <threadedComment ref="G77" dT="2025-06-29T22:49:22.06" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{8B7F5342-D63F-4241-984F-A242CA3F4EA1}">
+    <text>Better tolerate these variations during evaluation</text>
+  </threadedComment>
+  <threadedComment ref="G78" dT="2025-06-29T22:49:32.77" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{B6A028B5-838E-4249-9448-73C51777FB88}">
+    <text>Better tolerate these variations during evaluation</text>
+  </threadedComment>
+  <threadedComment ref="G103" dT="2025-06-29T23:03:54.91" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{BB3BC9D1-F045-49C5-A333-E3AF0158AFF3}">
+    <text>Tolerate during evaluation</text>
+  </threadedComment>
+  <threadedComment ref="G109" dT="2025-06-29T23:11:38.01" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{DAF88851-E959-412B-A735-404D50891443}">
+    <text>Tolerate during evaluation</text>
+  </threadedComment>
+  <threadedComment ref="G110" dT="2025-06-29T23:13:20.64" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{AF888F90-F344-474D-B33A-0BBEE5773157}">
+    <text>Tolerate during evaluation</text>
+  </threadedComment>
+  <threadedComment ref="G117" dT="2025-06-29T23:36:47.14" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{40C0854A-A706-457C-8932-C9D8425D4E7C}">
+    <text>No story/fraud type provided to search warrant</text>
+  </threadedComment>
   <threadedComment ref="E153" dT="2025-06-29T22:08:26.55" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{649DCBEE-EA9A-460B-BA56-8A3CBD53ACFD}">
     <text>on 21-Aug-2024 to buy a vacuum cleaner.</text>
   </threadedComment>
+  <threadedComment ref="E154" dT="2025-06-29T23:51:14.37" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{6BB87723-F2C9-4083-9CDF-D2CD45A0EEC5}">
+    <text>RECEIVED BOGUS CALL IMPERSONATING TO BE CHINA MOBILE STAFF CLAIMING</text>
+  </threadedComment>
   <threadedComment ref="B185" dT="2025-06-29T20:58:07.13" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{BE33CE91-23F0-4C1C-B412-BD1CB99DA7B5}">
     <text>Intelligence 3 is Incorporated in Intelligence 1 as shown in IR, out of scope and therefore assume this Intelligence 3 does not exist</text>
+  </threadedComment>
+  <threadedComment ref="E190" dT="2025-06-30T00:01:22.53" personId="{347863FD-7BC3-40E8-BD22-65CC93E0F63B}" id="{5C309FF5-813D-43B4-B87C-D2AF5013ED88}">
+    <text>Not provided should be correct instead, but let’s leave it out of scope for now</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1721,8 +2036,8 @@
   <dimension ref="A1:S190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O62" sqref="O62"/>
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O187" sqref="O187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,7 +2127,7 @@
         <v>61</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -1821,13 +2136,13 @@
         <v>62</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1844,31 +2159,31 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="K3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L3" t="s">
         <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1885,31 +2200,31 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L4" t="s">
         <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1926,31 +2241,31 @@
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L5" t="s">
         <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1967,31 +2282,31 @@
         <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I6" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>89</v>
-      </c>
       <c r="M6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2008,31 +2323,31 @@
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>39</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>39</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2049,31 +2364,31 @@
         <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="L8" t="s">
         <v>110</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L8" t="s">
-        <v>111</v>
-      </c>
       <c r="M8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2090,31 +2405,31 @@
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F9" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I9" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="I9" t="s">
-        <v>120</v>
-      </c>
       <c r="J9" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>39</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2131,31 +2446,31 @@
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2172,31 +2487,31 @@
         <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="L11" t="s">
         <v>128</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L11" t="s">
-        <v>129</v>
-      </c>
       <c r="M11" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2213,31 +2528,31 @@
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I12" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="I12" t="s">
-        <v>131</v>
-      </c>
       <c r="J12" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>39</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2254,31 +2569,31 @@
         <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="L13" t="s">
         <v>132</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L13" t="s">
-        <v>133</v>
-      </c>
       <c r="M13" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2295,31 +2610,31 @@
         <v>1</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>39</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2339,28 +2654,28 @@
         <v>61</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>39</v>
       </c>
       <c r="M15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2377,31 +2692,31 @@
         <v>1</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>39</v>
       </c>
       <c r="M16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2418,31 +2733,31 @@
         <v>1</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I17" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="I17" t="s">
-        <v>143</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>143</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>39</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2462,28 +2777,28 @@
         <v>61</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>39</v>
       </c>
       <c r="M18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2524,13 +2839,13 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2616,13 +2931,13 @@
         <v>1</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>56</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2639,13 +2954,13 @@
         <v>1</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>56</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2662,13 +2977,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2685,13 +3000,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>57</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2708,13 +3023,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>56</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2731,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>56</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2777,13 +3092,13 @@
         <v>1</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2800,13 +3115,13 @@
         <v>1</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2823,13 +3138,13 @@
         <v>1</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2846,13 +3161,13 @@
         <v>1</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2869,13 +3184,13 @@
         <v>1</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2915,13 +3230,13 @@
         <v>1</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2938,13 +3253,13 @@
         <v>1</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2961,13 +3276,13 @@
         <v>1</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2984,13 +3299,13 @@
         <v>1</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3007,13 +3322,13 @@
         <v>1</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3030,13 +3345,13 @@
         <v>1</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3053,13 +3368,13 @@
         <v>1</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3099,13 +3414,13 @@
         <v>1</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3122,13 +3437,13 @@
         <v>1</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3145,13 +3460,13 @@
         <v>1</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3168,13 +3483,13 @@
         <v>1</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3191,13 +3506,13 @@
         <v>1</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3214,13 +3529,13 @@
         <v>1</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3237,13 +3552,13 @@
         <v>1</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3260,13 +3575,13 @@
         <v>1</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3283,13 +3598,13 @@
         <v>1</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G53" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3306,13 +3621,13 @@
         <v>1</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3329,13 +3644,13 @@
         <v>1</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3352,13 +3667,13 @@
         <v>1</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3375,13 +3690,13 @@
         <v>1</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3398,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3421,13 +3736,13 @@
         <v>1</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3444,13 +3759,13 @@
         <v>1</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3467,13 +3782,13 @@
         <v>1</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3513,13 +3828,13 @@
         <v>1</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3536,13 +3851,13 @@
         <v>1</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3559,13 +3874,13 @@
         <v>1</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3582,13 +3897,13 @@
         <v>1</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3605,7 +3920,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>36</v>
@@ -3650,14 +3965,14 @@
       <c r="D69">
         <v>1</v>
       </c>
-      <c r="E69" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F69" s="13" t="s">
+      <c r="E69" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F69" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G69" s="13" t="s">
-        <v>162</v>
+      <c r="G69" s="20" t="s">
+        <v>208</v>
       </c>
       <c r="H69" s="15" t="s">
         <v>39</v>
@@ -3705,8 +4020,14 @@
       <c r="D71">
         <v>1</v>
       </c>
+      <c r="E71" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="F71" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3722,8 +4043,14 @@
       <c r="D72">
         <v>1</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>70</v>
+      <c r="E72" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3739,8 +4066,14 @@
       <c r="D73">
         <v>1</v>
       </c>
+      <c r="E73" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="F73" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3756,8 +4089,14 @@
       <c r="D74">
         <v>1</v>
       </c>
-      <c r="F74" s="7" t="s">
-        <v>87</v>
+      <c r="E74" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3773,8 +4112,14 @@
       <c r="D75">
         <v>1</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="E75" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F75" s="10" t="s">
         <v>46</v>
+      </c>
+      <c r="G75" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3790,7 +4135,13 @@
       <c r="D76">
         <v>1</v>
       </c>
+      <c r="E76" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="F76" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G76" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3807,8 +4158,14 @@
       <c r="D77">
         <v>1</v>
       </c>
+      <c r="E77" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="F77" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3824,8 +4181,14 @@
       <c r="D78">
         <v>1</v>
       </c>
-      <c r="F78" s="7" t="s">
-        <v>70</v>
+      <c r="E78" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3841,8 +4204,14 @@
       <c r="D79">
         <v>1</v>
       </c>
+      <c r="E79" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="F79" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3877,13 +4246,13 @@
         <v>33</v>
       </c>
       <c r="K80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L80" t="s">
         <v>34</v>
       </c>
       <c r="M80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3900,13 +4269,13 @@
         <v>1</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H81" t="s">
         <v>40</v>
@@ -3918,13 +4287,13 @@
         <v>40</v>
       </c>
       <c r="K81" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L81" t="s">
         <v>41</v>
       </c>
       <c r="M81" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3959,13 +4328,13 @@
         <v>43</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L82" t="s">
         <v>34</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -4000,13 +4369,13 @@
         <v>44</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L83" t="s">
         <v>45</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -4041,13 +4410,13 @@
         <v>48</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L84" t="s">
         <v>49</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4067,19 +4436,28 @@
         <v>29</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J85" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M85" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4096,16 +4474,31 @@
         <v>9</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="I86" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M86" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4122,16 +4515,31 @@
         <v>1</v>
       </c>
       <c r="E87" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F87" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F87" s="14" t="s">
-        <v>74</v>
-      </c>
       <c r="G87" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="I87" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="J87" t="s">
+        <v>71</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M87" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4148,16 +4556,31 @@
         <v>1</v>
       </c>
       <c r="E88" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F88" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="G88" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H88" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G88" s="18" t="s">
-        <v>73</v>
-      </c>
       <c r="I88" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="J88" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K88" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M88" s="14" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4174,16 +4597,31 @@
         <v>1</v>
       </c>
       <c r="E89" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H89" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="I89" t="s">
         <v>76</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="J89" t="s">
         <v>76</v>
       </c>
-      <c r="I89" t="s">
-        <v>77</v>
+      <c r="K89" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="L89" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M89" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4199,11 +4637,32 @@
       <c r="D90">
         <v>1</v>
       </c>
-      <c r="F90" s="7" t="s">
-        <v>69</v>
+      <c r="E90" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="I90" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="J90" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K90" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="L90" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M90" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4219,11 +4678,32 @@
       <c r="D91">
         <v>1</v>
       </c>
-      <c r="F91" s="7" t="s">
-        <v>69</v>
+      <c r="E91" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H91" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="I91" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="J91" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K91" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M91" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4239,11 +4719,32 @@
       <c r="D92">
         <v>1</v>
       </c>
-      <c r="F92" s="7" t="s">
-        <v>69</v>
+      <c r="E92" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="I92" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="J92" t="s">
+        <v>81</v>
+      </c>
+      <c r="K92" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M92" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4259,11 +4760,32 @@
       <c r="D93">
         <v>1</v>
       </c>
-      <c r="F93" s="7" t="s">
-        <v>84</v>
+      <c r="E93" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H93" t="s">
+        <v>74</v>
       </c>
       <c r="I93" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="J93" t="s">
+        <v>74</v>
+      </c>
+      <c r="K93" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M93" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4279,11 +4801,32 @@
       <c r="D94">
         <v>1</v>
       </c>
-      <c r="F94" s="7" t="s">
-        <v>69</v>
+      <c r="E94" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H94" t="s">
+        <v>76</v>
       </c>
       <c r="I94" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="J94" t="s">
+        <v>76</v>
+      </c>
+      <c r="K94" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M94" s="14" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4299,11 +4842,32 @@
       <c r="D95">
         <v>1</v>
       </c>
-      <c r="F95" s="7" t="s">
-        <v>69</v>
+      <c r="E95" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G95" t="s">
+        <v>32</v>
+      </c>
+      <c r="H95" t="s">
+        <v>84</v>
       </c>
       <c r="I95" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="J95" t="s">
+        <v>84</v>
+      </c>
+      <c r="K95" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="L95" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M95" s="14" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4319,14 +4883,35 @@
       <c r="D96">
         <v>1</v>
       </c>
-      <c r="F96" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I96" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E96" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G96" t="s">
+        <v>42</v>
+      </c>
+      <c r="H96" t="s">
+        <v>222</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J96" t="s">
+        <v>222</v>
+      </c>
+      <c r="K96" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="L96" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M96" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -4339,14 +4924,35 @@
       <c r="D97">
         <v>1</v>
       </c>
-      <c r="F97" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="E97" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F97" s="16" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G97" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="I97" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J97" t="s">
+        <v>224</v>
+      </c>
+      <c r="K97" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="L97" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M97" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -4359,17 +4965,35 @@
       <c r="D98">
         <v>1</v>
       </c>
+      <c r="E98" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="F98" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="I98" t="s">
-        <v>91</v>
-      </c>
-      <c r="L98" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J98" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K98" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="L98" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M98" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -4382,17 +5006,35 @@
       <c r="D99" t="s">
         <v>10</v>
       </c>
+      <c r="E99" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="F99" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="G99" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="I99" t="s">
+        <v>111</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K99" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="L99" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="L99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -4405,14 +5047,35 @@
       <c r="D100">
         <v>1</v>
       </c>
+      <c r="E100" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="F100" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="I100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K100" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="L100" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M100" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -4425,17 +5088,35 @@
       <c r="D101">
         <v>1</v>
       </c>
+      <c r="E101" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F101" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="G101" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H101" t="s">
+        <v>74</v>
       </c>
       <c r="I101" t="s">
-        <v>75</v>
-      </c>
-      <c r="L101" t="s">
+        <v>74</v>
+      </c>
+      <c r="J101" t="s">
+        <v>74</v>
+      </c>
+      <c r="K101" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="L101" s="19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -4448,14 +5129,35 @@
       <c r="D102">
         <v>1</v>
       </c>
+      <c r="E102" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="F102" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H102" t="s">
+        <v>74</v>
       </c>
       <c r="I102" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="J102" t="s">
+        <v>74</v>
+      </c>
+      <c r="K102" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="L102" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M102" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -4468,14 +5170,35 @@
       <c r="D103">
         <v>1</v>
       </c>
-      <c r="F103" s="7" t="s">
-        <v>124</v>
+      <c r="E103" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G103" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="H103" t="s">
+        <v>74</v>
       </c>
       <c r="I103" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="J103" t="s">
+        <v>74</v>
+      </c>
+      <c r="K103" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="L103" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M103" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -4488,14 +5211,32 @@
       <c r="D104">
         <v>1</v>
       </c>
+      <c r="E104" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="F104" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="H104" t="s">
+        <v>76</v>
       </c>
       <c r="I104" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="J104" t="s">
+        <v>76</v>
+      </c>
+      <c r="K104" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="L104" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M104" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -4508,14 +5249,35 @@
       <c r="D105">
         <v>1</v>
       </c>
+      <c r="E105" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="F105" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H105" t="s">
+        <v>84</v>
       </c>
       <c r="I105" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="J105" t="s">
+        <v>84</v>
+      </c>
+      <c r="K105" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="L105" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M105" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -4528,14 +5290,35 @@
       <c r="D106">
         <v>1</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="E106" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H106" t="s">
         <v>76</v>
       </c>
       <c r="I106" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="J106" t="s">
+        <v>76</v>
+      </c>
+      <c r="K106" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="L106" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M106" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -4548,14 +5331,35 @@
       <c r="D107">
         <v>1</v>
       </c>
+      <c r="E107" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="F107" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H107" t="s">
+        <v>74</v>
       </c>
       <c r="I107" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="J107" t="s">
+        <v>74</v>
+      </c>
+      <c r="K107" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L107" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M107" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -4568,14 +5372,35 @@
       <c r="D108">
         <v>1</v>
       </c>
-      <c r="F108" s="7" t="s">
-        <v>78</v>
+      <c r="E108" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="I108" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="J108" t="s">
+        <v>74</v>
+      </c>
+      <c r="K108" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="L108" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M108" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -4588,14 +5413,35 @@
       <c r="D109">
         <v>1</v>
       </c>
-      <c r="F109" s="7" t="s">
-        <v>136</v>
+      <c r="E109" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F109" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G109" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="I109" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="J109" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K109" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="L109" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M109" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -4608,14 +5454,35 @@
       <c r="D110">
         <v>1</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="E110" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H110" s="14" t="s">
         <v>137</v>
       </c>
       <c r="I110" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="J110" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K110" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="L110" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M110" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -4628,14 +5495,35 @@
       <c r="D111">
         <v>1</v>
       </c>
-      <c r="F111" s="7" t="s">
-        <v>70</v>
+      <c r="E111" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H111" t="s">
+        <v>74</v>
       </c>
       <c r="I111" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="J111" t="s">
+        <v>74</v>
+      </c>
+      <c r="K111" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="L111" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M111" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -4648,14 +5536,35 @@
       <c r="D112">
         <v>1</v>
       </c>
+      <c r="E112" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="F112" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H112" t="s">
+        <v>71</v>
       </c>
       <c r="I112" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="J112" t="s">
+        <v>71</v>
+      </c>
+      <c r="K112" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="L112" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M112" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -4668,14 +5577,35 @@
       <c r="D113">
         <v>1</v>
       </c>
+      <c r="E113" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="F113" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="G113" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H113" t="s">
+        <v>137</v>
+      </c>
       <c r="I113" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="J113" t="s">
+        <v>137</v>
+      </c>
+      <c r="K113" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="L113" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M113" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -4688,17 +5618,35 @@
       <c r="D114">
         <v>1</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="E114" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H114" t="s">
         <v>144</v>
       </c>
       <c r="I114" t="s">
+        <v>144</v>
+      </c>
+      <c r="J114" t="s">
+        <v>144</v>
+      </c>
+      <c r="K114" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="L114" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="L114" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M114" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -4711,17 +5659,35 @@
       <c r="D115">
         <v>1</v>
       </c>
+      <c r="E115" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="F115" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H115" t="s">
+        <v>149</v>
       </c>
       <c r="I115" t="s">
+        <v>149</v>
+      </c>
+      <c r="J115" t="s">
+        <v>149</v>
+      </c>
+      <c r="K115" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="L115" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="L115" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M115" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -4734,17 +5700,35 @@
       <c r="D116">
         <v>1</v>
       </c>
+      <c r="E116" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="F116" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="I116" t="s">
-        <v>152</v>
-      </c>
-      <c r="L116" t="s">
+        <v>151</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K116" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="L116" s="19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M116" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -4758,12 +5742,12 @@
         <v>1</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H117" s="7" t="s">
@@ -4775,6 +5759,15 @@
       <c r="J117" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="K117" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M117" s="14" t="s">
+        <v>247</v>
+      </c>
       <c r="N117" t="s">
         <v>51</v>
       </c>
@@ -4784,8 +5777,17 @@
       <c r="P117" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q117" t="s">
+        <v>244</v>
+      </c>
+      <c r="R117" t="s">
+        <v>39</v>
+      </c>
+      <c r="S117" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -4799,12 +5801,12 @@
         <v>1</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H118" s="7" t="s">
@@ -4816,6 +5818,15 @@
       <c r="J118" s="7" t="s">
         <v>52</v>
       </c>
+      <c r="K118" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="L118" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M118" s="14" t="s">
+        <v>249</v>
+      </c>
       <c r="N118" t="s">
         <v>53</v>
       </c>
@@ -4825,8 +5836,17 @@
       <c r="P118" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q118" t="s">
+        <v>248</v>
+      </c>
+      <c r="R118" t="s">
+        <v>39</v>
+      </c>
+      <c r="S118" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -4840,12 +5860,12 @@
         <v>1</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H119" s="7" t="s">
@@ -4857,6 +5877,15 @@
       <c r="J119" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="K119" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M119" s="14" t="s">
+        <v>250</v>
+      </c>
       <c r="N119" t="s">
         <v>55</v>
       </c>
@@ -4866,8 +5895,17 @@
       <c r="P119" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q119" t="s">
+        <v>243</v>
+      </c>
+      <c r="R119" t="s">
+        <v>39</v>
+      </c>
+      <c r="S119" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -4881,12 +5919,12 @@
         <v>1</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F120" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G120" s="11" t="s">
+      <c r="G120" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H120" t="s">
@@ -4898,6 +5936,15 @@
       <c r="J120" t="s">
         <v>59</v>
       </c>
+      <c r="K120" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M120" t="s">
+        <v>242</v>
+      </c>
       <c r="N120" t="s">
         <v>60</v>
       </c>
@@ -4907,8 +5954,17 @@
       <c r="P120" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q120" t="s">
+        <v>243</v>
+      </c>
+      <c r="R120" t="s">
+        <v>39</v>
+      </c>
+      <c r="S120" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -4922,12 +5978,12 @@
         <v>2</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F121" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G121" s="11" t="s">
+      <c r="G121" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H121" t="s">
@@ -4939,14 +5995,14 @@
       <c r="J121" t="s">
         <v>64</v>
       </c>
-      <c r="K121" t="s">
-        <v>171</v>
-      </c>
-      <c r="L121" t="s">
-        <v>66</v>
-      </c>
-      <c r="M121" t="s">
-        <v>171</v>
+      <c r="K121" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="L121" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M121" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="N121" t="s">
         <v>65</v>
@@ -4957,8 +6013,17 @@
       <c r="P121" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q121" t="s">
+        <v>244</v>
+      </c>
+      <c r="R121" t="s">
+        <v>39</v>
+      </c>
+      <c r="S121" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -4971,17 +6036,53 @@
       <c r="D122">
         <v>1</v>
       </c>
+      <c r="E122" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="F122" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="G122" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H122" t="s">
+        <v>74</v>
+      </c>
       <c r="I122" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="J122" t="s">
+        <v>74</v>
+      </c>
+      <c r="K122" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="L122" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M122" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="N122" t="s">
+        <v>78</v>
       </c>
       <c r="O122" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="P122" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>246</v>
+      </c>
+      <c r="R122" t="s">
+        <v>39</v>
+      </c>
+      <c r="S122" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>11</v>
       </c>
@@ -4994,17 +6095,53 @@
       <c r="D123">
         <v>1</v>
       </c>
+      <c r="E123" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="F123" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="G123" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H123" t="s">
+        <v>76</v>
+      </c>
       <c r="I123" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="J123" t="s">
+        <v>76</v>
+      </c>
+      <c r="K123" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="L123" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M123" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="N123" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="O123" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="P123" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>246</v>
+      </c>
+      <c r="R123" t="s">
+        <v>39</v>
+      </c>
+      <c r="S123" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -5017,17 +6154,53 @@
       <c r="D124">
         <v>1</v>
       </c>
+      <c r="E124" s="17" t="s">
+        <v>252</v>
+      </c>
       <c r="F124" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="G124" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H124" t="s">
+        <v>76</v>
+      </c>
       <c r="I124" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="J124" t="s">
+        <v>76</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N124" t="s">
+        <v>78</v>
       </c>
       <c r="O124" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="P124" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>246</v>
+      </c>
+      <c r="R124" t="s">
+        <v>39</v>
+      </c>
+      <c r="S124" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -5040,17 +6213,53 @@
       <c r="D125">
         <v>1</v>
       </c>
+      <c r="E125" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="F125" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I125" t="s">
-        <v>75</v>
+      <c r="G125" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H125" t="s">
+        <v>253</v>
+      </c>
+      <c r="I125" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J125" t="s">
+        <v>253</v>
+      </c>
+      <c r="K125" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="L125" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M125" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="N125" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="O125" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="P125" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q125" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="R125" t="s">
+        <v>39</v>
+      </c>
+      <c r="S125" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -5063,17 +6272,53 @@
       <c r="D126">
         <v>1</v>
       </c>
+      <c r="E126" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="F126" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="G126" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H126" t="s">
+        <v>92</v>
+      </c>
       <c r="I126" t="s">
+        <v>92</v>
+      </c>
+      <c r="J126" t="s">
+        <v>92</v>
+      </c>
+      <c r="K126" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="L126" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M126" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="N126" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="O126" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="O126" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P126" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q126" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="R126" t="s">
+        <v>39</v>
+      </c>
+      <c r="S126" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -5086,17 +6331,53 @@
       <c r="D127">
         <v>1</v>
       </c>
-      <c r="F127" s="7" t="s">
-        <v>78</v>
+      <c r="E127" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H127" t="s">
+        <v>74</v>
       </c>
       <c r="I127" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="J127" t="s">
+        <v>74</v>
+      </c>
+      <c r="K127" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="L127" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M127" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="N127" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="O127" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="P127" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q127" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="R127" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S127" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -5109,11 +6390,53 @@
       <c r="D128">
         <v>1</v>
       </c>
-      <c r="F128" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E128" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H128" t="s">
+        <v>74</v>
+      </c>
+      <c r="I128" t="s">
+        <v>39</v>
+      </c>
+      <c r="J128" t="s">
+        <v>74</v>
+      </c>
+      <c r="K128" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="L128" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M128" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="N128" t="s">
+        <v>260</v>
+      </c>
+      <c r="O128" t="s">
+        <v>39</v>
+      </c>
+      <c r="P128" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q128" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="R128" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S128" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -5126,17 +6449,53 @@
       <c r="D129">
         <v>1</v>
       </c>
+      <c r="E129" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="F129" s="7" t="s">
         <v>46</v>
       </c>
+      <c r="G129" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="I129" t="s">
+        <v>96</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K129" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="L129" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M129" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="N129" s="14" t="s">
         <v>97</v>
       </c>
       <c r="O129" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="P129" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q129" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="R129" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S129" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -5149,20 +6508,53 @@
       <c r="D130">
         <v>1</v>
       </c>
+      <c r="E130" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="F130" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="G130" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H130" t="s">
+        <v>99</v>
+      </c>
       <c r="I130" t="s">
+        <v>99</v>
+      </c>
+      <c r="J130" t="s">
+        <v>99</v>
+      </c>
+      <c r="K130" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L130" t="s">
+        <v>101</v>
+      </c>
+      <c r="M130" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="N130" t="s">
         <v>100</v>
       </c>
-      <c r="L130" t="s">
-        <v>102</v>
-      </c>
       <c r="O130" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="P130" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q130" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="R130" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S130" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -5175,17 +6567,53 @@
       <c r="D131">
         <v>1</v>
       </c>
+      <c r="E131" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="F131" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I131" s="3" t="s">
-        <v>116</v>
+      <c r="G131" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J131" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K131" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="L131" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M131" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="N131" t="s">
+        <v>114</v>
       </c>
       <c r="O131" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="P131" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q131" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="R131" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S131" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>11</v>
       </c>
@@ -5198,17 +6626,53 @@
       <c r="D132">
         <v>1</v>
       </c>
+      <c r="E132" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="F132" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="G132" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H132" t="s">
+        <v>115</v>
+      </c>
       <c r="I132" t="s">
+        <v>115</v>
+      </c>
+      <c r="J132" t="s">
+        <v>115</v>
+      </c>
+      <c r="K132" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="L132" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M132" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="N132" t="s">
         <v>116</v>
       </c>
       <c r="O132" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="P132" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q132" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="R132" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S132" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>11</v>
       </c>
@@ -5221,17 +6685,53 @@
       <c r="D133">
         <v>1</v>
       </c>
+      <c r="E133" s="17" t="s">
+        <v>265</v>
+      </c>
       <c r="F133" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="G133" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H133" t="s">
+        <v>74</v>
+      </c>
       <c r="I133" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="J133" t="s">
+        <v>74</v>
+      </c>
+      <c r="K133" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="L133" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M133" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="N133" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="O133" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="P133" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q133" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="R133" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S133" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -5244,17 +6744,53 @@
       <c r="D134">
         <v>1</v>
       </c>
+      <c r="E134" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="F134" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="G134" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H134" t="s">
+        <v>74</v>
+      </c>
       <c r="I134" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="J134" t="s">
+        <v>74</v>
+      </c>
+      <c r="K134" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="L134" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M134" t="s">
+        <v>267</v>
+      </c>
+      <c r="N134" t="s">
+        <v>85</v>
       </c>
       <c r="O134" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="P134" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q134" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="R134" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S134" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -5267,11 +6803,53 @@
       <c r="D135">
         <v>2</v>
       </c>
+      <c r="E135" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="F135" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G135" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H135" t="s">
+        <v>74</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J135" t="s">
+        <v>74</v>
+      </c>
+      <c r="K135" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L135" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M135" t="s">
+        <v>268</v>
+      </c>
+      <c r="N135" t="s">
+        <v>258</v>
+      </c>
+      <c r="O135" t="s">
+        <v>39</v>
+      </c>
+      <c r="P135" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q135" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="R135" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S135" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -5284,17 +6862,53 @@
       <c r="D136">
         <v>1</v>
       </c>
+      <c r="E136" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="F136" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="G136" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H136" t="s">
+        <v>74</v>
+      </c>
       <c r="I136" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="J136" t="s">
+        <v>74</v>
+      </c>
+      <c r="K136" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="L136" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M136" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="N136" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="O136" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="P136" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q136" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="R136" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S136" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -5307,17 +6921,53 @@
       <c r="D137">
         <v>1</v>
       </c>
+      <c r="E137" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="F137" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="G137" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H137" t="s">
+        <v>74</v>
+      </c>
       <c r="I137" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="J137" t="s">
+        <v>74</v>
+      </c>
+      <c r="K137" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="L137" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M137" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="N137" t="s">
+        <v>138</v>
       </c>
       <c r="O137" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="P137" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q137" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="R137" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S137" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -5330,17 +6980,53 @@
       <c r="D138">
         <v>1</v>
       </c>
+      <c r="E138" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="F138" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="G138" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H138" t="s">
+        <v>74</v>
+      </c>
       <c r="I138" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="J138" t="s">
+        <v>74</v>
+      </c>
+      <c r="K138" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="L138" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M138" t="s">
+        <v>271</v>
+      </c>
+      <c r="N138" t="s">
+        <v>139</v>
       </c>
       <c r="O138" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="P138" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q138" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="R138" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S138" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>11</v>
       </c>
@@ -5353,17 +7039,53 @@
       <c r="D139">
         <v>1</v>
       </c>
+      <c r="E139" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="F139" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H139" t="s">
+        <v>146</v>
       </c>
       <c r="I139" t="s">
+        <v>146</v>
+      </c>
+      <c r="J139" t="s">
+        <v>146</v>
+      </c>
+      <c r="K139" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="L139" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M139" t="s">
+        <v>272</v>
+      </c>
+      <c r="N139" t="s">
+        <v>273</v>
+      </c>
+      <c r="O139" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="O139" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P139" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q139" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="R139" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S139" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>11</v>
       </c>
@@ -5376,17 +7098,53 @@
       <c r="D140">
         <v>1</v>
       </c>
+      <c r="E140" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="F140" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="G140" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H140" t="s">
+        <v>152</v>
+      </c>
       <c r="I140" t="s">
+        <v>152</v>
+      </c>
+      <c r="J140" t="s">
+        <v>152</v>
+      </c>
+      <c r="K140" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="L140" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M140" t="s">
+        <v>274</v>
+      </c>
+      <c r="N140" t="s">
         <v>153</v>
       </c>
       <c r="O140" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="P140" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q140" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="R140" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S140" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -5399,17 +7157,53 @@
       <c r="D141">
         <v>1</v>
       </c>
+      <c r="E141" s="17" t="s">
+        <v>275</v>
+      </c>
       <c r="F141" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I141" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O141" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G141" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K141" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="L141" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M141" t="s">
+        <v>276</v>
+      </c>
+      <c r="N141" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="O141" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="P141" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q141" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="R141" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="S141" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -5423,16 +7217,16 @@
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F142" s="16" t="s">
         <v>31</v>
       </c>
       <c r="G142" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -5455,7 +7249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -5653,13 +7447,13 @@
         <v>1</v>
       </c>
       <c r="E152" s="13" t="s">
-        <v>173</v>
+        <v>279</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5679,10 +7473,10 @@
         <v>63</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G153" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5698,8 +7492,14 @@
       <c r="D154">
         <v>1</v>
       </c>
-      <c r="F154" s="7" t="s">
-        <v>70</v>
+      <c r="E154" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F154" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G154" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5715,7 +7515,13 @@
       <c r="D155">
         <v>1</v>
       </c>
+      <c r="E155" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F155" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G155" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5732,7 +7538,13 @@
       <c r="D156">
         <v>1</v>
       </c>
+      <c r="E156" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F156" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G156" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5749,7 +7561,13 @@
       <c r="D157">
         <v>1</v>
       </c>
+      <c r="E157" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F157" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G157" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5766,7 +7584,13 @@
       <c r="D158">
         <v>1</v>
       </c>
+      <c r="E158" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F158" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G158" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5783,7 +7607,13 @@
       <c r="D159">
         <v>1</v>
       </c>
+      <c r="E159" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F159" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G159" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5800,11 +7630,17 @@
       <c r="D160">
         <v>1</v>
       </c>
+      <c r="E160" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F160" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -5817,11 +7653,17 @@
       <c r="D161">
         <v>1</v>
       </c>
+      <c r="E161" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F161" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -5834,11 +7676,17 @@
       <c r="D162">
         <v>1</v>
       </c>
+      <c r="E162" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F162" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>12</v>
       </c>
@@ -5851,11 +7699,17 @@
       <c r="D163">
         <v>1</v>
       </c>
-      <c r="F163" s="7" t="s">
+      <c r="E163" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F163" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>12</v>
       </c>
@@ -5868,11 +7722,17 @@
       <c r="D164">
         <v>1</v>
       </c>
+      <c r="E164" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F164" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>12</v>
       </c>
@@ -5885,11 +7745,17 @@
       <c r="D165">
         <v>1</v>
       </c>
+      <c r="E165" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F165" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>12</v>
       </c>
@@ -5902,11 +7768,17 @@
       <c r="D166">
         <v>1</v>
       </c>
+      <c r="E166" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F166" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>12</v>
       </c>
@@ -5919,11 +7791,17 @@
       <c r="D167">
         <v>1</v>
       </c>
+      <c r="E167" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F167" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>12</v>
       </c>
@@ -5936,11 +7814,17 @@
       <c r="D168">
         <v>1</v>
       </c>
+      <c r="E168" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F168" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>12</v>
       </c>
@@ -5953,11 +7837,17 @@
       <c r="D169">
         <v>1</v>
       </c>
+      <c r="E169" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F169" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>12</v>
       </c>
@@ -5970,11 +7860,17 @@
       <c r="D170">
         <v>1</v>
       </c>
+      <c r="E170" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F170" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>12</v>
       </c>
@@ -5987,11 +7883,17 @@
       <c r="D171">
         <v>1</v>
       </c>
+      <c r="E171" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F171" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>12</v>
       </c>
@@ -6004,11 +7906,17 @@
       <c r="D172">
         <v>1</v>
       </c>
+      <c r="E172" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F172" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>12</v>
       </c>
@@ -6021,11 +7929,17 @@
       <c r="D173">
         <v>1</v>
       </c>
+      <c r="E173" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F173" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>12</v>
       </c>
@@ -6038,11 +7952,17 @@
       <c r="D174">
         <v>1</v>
       </c>
+      <c r="E174" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F174" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>12</v>
       </c>
@@ -6055,11 +7975,17 @@
       <c r="D175">
         <v>1</v>
       </c>
+      <c r="E175" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F175" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>12</v>
       </c>
@@ -6072,11 +7998,17 @@
       <c r="D176">
         <v>1</v>
       </c>
+      <c r="E176" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F176" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>12</v>
       </c>
@@ -6089,11 +8021,17 @@
       <c r="D177">
         <v>1</v>
       </c>
+      <c r="E177" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F177" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -6106,11 +8044,17 @@
       <c r="D178">
         <v>1</v>
       </c>
+      <c r="E178" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F178" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>12</v>
       </c>
@@ -6123,11 +8067,17 @@
       <c r="D179">
         <v>1</v>
       </c>
+      <c r="E179" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F179" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>12</v>
       </c>
@@ -6140,11 +8090,17 @@
       <c r="D180">
         <v>1</v>
       </c>
+      <c r="E180" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F180" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>12</v>
       </c>
@@ -6157,11 +8113,17 @@
       <c r="D181">
         <v>2</v>
       </c>
+      <c r="E181" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F181" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>12</v>
       </c>
@@ -6174,11 +8136,17 @@
       <c r="D182">
         <v>1</v>
       </c>
+      <c r="E182" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F182" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>12</v>
       </c>
@@ -6191,11 +8159,17 @@
       <c r="D183">
         <v>1</v>
       </c>
+      <c r="E183" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F183" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>12</v>
       </c>
@@ -6208,11 +8182,17 @@
       <c r="D184">
         <v>1</v>
       </c>
+      <c r="E184" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F184" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>12</v>
       </c>
@@ -6225,11 +8205,17 @@
       <c r="D185">
         <v>1</v>
       </c>
+      <c r="E185" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F185" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>12</v>
       </c>
@@ -6242,11 +8228,17 @@
       <c r="D186">
         <v>1</v>
       </c>
+      <c r="E186" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F186" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>12</v>
       </c>
@@ -6259,11 +8251,17 @@
       <c r="D187">
         <v>1</v>
       </c>
+      <c r="E187" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F187" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>12</v>
       </c>
@@ -6276,11 +8274,17 @@
       <c r="D188">
         <v>1</v>
       </c>
+      <c r="E188" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F188" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G188" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -6293,11 +8297,17 @@
       <c r="D189">
         <v>1</v>
       </c>
+      <c r="E189" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F189" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>12</v>
       </c>
@@ -6310,8 +8320,14 @@
       <c r="D190">
         <v>1</v>
       </c>
-      <c r="F190" s="7" t="s">
-        <v>31</v>
+      <c r="E190" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F190" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/Input Data Summary/OtherFields_From_IR_and_Source.xlsx
+++ b/Input Data Summary/OtherFields_From_IR_and_Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Input Data Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A3157F-2EC4-40EC-A4B7-7A931D41D31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA31EAA2-F80B-43B0-8DC1-3371E765BACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" xr2:uid="{7EB6CA85-DEC3-4664-8E37-E2FE4A578472}"/>
   </bookViews>
@@ -1030,7 +1030,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1164,12 +1164,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1573,32 +1567,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2036,14 +2018,11 @@
   <dimension ref="A1:S190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O187" sqref="O187"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N143" sqref="N143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="9.140625" style="7"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2061,7 +2040,7 @@
       <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" t="s">
@@ -2117,16 +2096,16 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" t="s">
         <v>167</v>
       </c>
       <c r="I2" t="s">
@@ -2135,13 +2114,13 @@
       <c r="J2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" t="s">
         <v>108</v>
       </c>
       <c r="L2" t="s">
         <v>108</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2158,13 +2137,13 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" t="s">
         <v>66</v>
       </c>
       <c r="H3" t="s">
@@ -2199,16 +2178,16 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" t="s">
         <v>171</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" t="s">
         <v>173</v>
       </c>
       <c r="I4" t="s">
@@ -2240,16 +2219,16 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" t="s">
         <v>174</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" t="s">
         <v>175</v>
       </c>
       <c r="I5" t="s">
@@ -2281,28 +2260,28 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" t="s">
         <v>177</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" t="s">
         <v>179</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="10" t="s">
         <v>88</v>
       </c>
       <c r="M6" t="s">
@@ -2322,31 +2301,31 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" t="s">
         <v>181</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="17" t="s">
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" t="s">
         <v>183</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="7" t="s">
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2363,16 +2342,16 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" t="s">
         <v>107</v>
       </c>
       <c r="G8" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" t="s">
         <v>184</v>
       </c>
       <c r="I8" t="s">
@@ -2381,13 +2360,13 @@
       <c r="J8" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" t="s">
         <v>110</v>
       </c>
       <c r="L8" t="s">
         <v>110</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2404,16 +2383,16 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" t="s">
         <v>187</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" t="s">
         <v>187</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" t="s">
         <v>188</v>
       </c>
       <c r="I9" t="s">
@@ -2422,13 +2401,13 @@
       <c r="J9" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" t="s">
         <v>189</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="7" t="s">
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2445,16 +2424,16 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" t="s">
         <v>190</v>
       </c>
       <c r="I10" t="s">
@@ -2463,10 +2442,10 @@
       <c r="J10" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" t="s">
         <v>132</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" t="s">
         <v>39</v>
       </c>
       <c r="M10" t="s">
@@ -2486,16 +2465,16 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" t="s">
         <v>185</v>
       </c>
       <c r="I11" t="s">
@@ -2504,13 +2483,13 @@
       <c r="J11" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" t="s">
         <v>128</v>
       </c>
       <c r="L11" t="s">
         <v>128</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2527,16 +2506,16 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" t="s">
         <v>106</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" t="s">
         <v>191</v>
       </c>
       <c r="I12" t="s">
@@ -2545,13 +2524,13 @@
       <c r="J12" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" t="s">
         <v>192</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="7" t="s">
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2568,16 +2547,16 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" t="s">
         <v>186</v>
       </c>
       <c r="I13" t="s">
@@ -2586,13 +2565,13 @@
       <c r="J13" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" t="s">
         <v>132</v>
       </c>
       <c r="L13" t="s">
         <v>132</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2609,16 +2588,16 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" t="s">
         <v>193</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" t="s">
         <v>193</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" t="s">
         <v>194</v>
       </c>
       <c r="I14" t="s">
@@ -2627,13 +2606,13 @@
       <c r="J14" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" t="s">
         <v>170</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="7" t="s">
+      <c r="L14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2650,16 +2629,16 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" t="s">
         <v>195</v>
       </c>
       <c r="I15" t="s">
@@ -2668,10 +2647,10 @@
       <c r="J15" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" t="s">
         <v>196</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" t="s">
         <v>39</v>
       </c>
       <c r="M15" t="s">
@@ -2691,16 +2670,16 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" t="s">
         <v>197</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" t="s">
         <v>198</v>
       </c>
       <c r="I16" t="s">
@@ -2709,10 +2688,10 @@
       <c r="J16" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" t="s">
         <v>176</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" t="s">
         <v>39</v>
       </c>
       <c r="M16" t="s">
@@ -2732,16 +2711,16 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" t="s">
         <v>141</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" t="s">
         <v>199</v>
       </c>
       <c r="I17" t="s">
@@ -2750,13 +2729,13 @@
       <c r="J17" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" t="s">
         <v>200</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="7" t="s">
+      <c r="L17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2773,16 +2752,16 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" t="s">
         <v>201</v>
       </c>
       <c r="I18" t="s">
@@ -2791,10 +2770,10 @@
       <c r="J18" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" t="s">
         <v>202</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" t="s">
         <v>39</v>
       </c>
       <c r="M18" t="s">
@@ -2817,10 +2796,10 @@
       <c r="E19" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>29</v>
       </c>
       <c r="J19" s="1"/>
@@ -2841,7 +2820,7 @@
       <c r="E20" t="s">
         <v>159</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G20" t="s">
@@ -2864,7 +2843,7 @@
       <c r="E21" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" t="s">
         <v>37</v>
       </c>
       <c r="G21" t="s">
@@ -2884,13 +2863,13 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2907,13 +2886,13 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2930,13 +2909,13 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2953,13 +2932,13 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2976,13 +2955,13 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2999,13 +2978,13 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" t="s">
         <v>166</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3022,13 +3001,13 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3045,13 +3024,13 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3071,10 +3050,10 @@
       <c r="E30" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3091,13 +3070,13 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3114,13 +3093,13 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" t="s">
         <v>69</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3137,13 +3116,13 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3160,13 +3139,13 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" t="s">
         <v>77</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3183,13 +3162,13 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" t="s">
         <v>203</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" t="s">
         <v>91</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="7" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3206,13 +3185,13 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3229,13 +3208,13 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" t="s">
         <v>77</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3252,13 +3231,13 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" t="s">
         <v>69</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" t="s">
         <v>69</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3275,13 +3254,13 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" t="s">
         <v>69</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3298,13 +3277,13 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" t="s">
         <v>69</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3321,13 +3300,13 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" t="s">
         <v>69</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3344,13 +3323,13 @@
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3367,13 +3346,13 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" t="s">
         <v>95</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" t="s">
         <v>95</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3390,13 +3369,13 @@
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F44" s="7" t="s">
+      <c r="E44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" t="s">
         <v>37</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3413,13 +3392,13 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" t="s">
         <v>98</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" t="s">
         <v>98</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3436,13 +3415,13 @@
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" t="s">
         <v>98</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" t="s">
         <v>98</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3459,13 +3438,13 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" t="s">
         <v>102</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3482,13 +3461,13 @@
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" t="s">
         <v>204</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" t="s">
         <v>103</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="7" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3505,13 +3484,13 @@
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" t="s">
         <v>104</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" t="s">
         <v>104</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3528,13 +3507,13 @@
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" t="s">
         <v>95</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" t="s">
         <v>105</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="7" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3551,13 +3530,13 @@
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" t="s">
         <v>106</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" t="s">
         <v>106</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3574,13 +3553,13 @@
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" t="s">
         <v>95</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" t="s">
         <v>95</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3597,10 +3576,10 @@
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" t="s">
         <v>205</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="10" t="s">
         <v>113</v>
       </c>
       <c r="G53" t="s">
@@ -3620,13 +3599,13 @@
       <c r="D54">
         <v>1</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" t="s">
         <v>122</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" t="s">
         <v>122</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3643,13 +3622,13 @@
       <c r="D55">
         <v>1</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" t="s">
         <v>69</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3666,13 +3645,13 @@
       <c r="D56">
         <v>1</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" t="s">
         <v>104</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3689,13 +3668,13 @@
       <c r="D57">
         <v>1</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3712,13 +3691,13 @@
       <c r="D58">
         <v>1</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" t="s">
         <v>70</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3735,13 +3714,13 @@
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" t="s">
         <v>68</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" t="s">
         <v>68</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3758,13 +3737,13 @@
       <c r="D60">
         <v>1</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" t="s">
         <v>68</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" t="s">
         <v>68</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3781,13 +3760,13 @@
       <c r="D61">
         <v>1</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" t="s">
         <v>69</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" t="s">
         <v>69</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3804,13 +3783,13 @@
       <c r="D62">
         <v>1</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F62" s="7" t="s">
+      <c r="E62" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" t="s">
         <v>36</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3827,13 +3806,13 @@
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" t="s">
         <v>105</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="F63" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3850,13 +3829,13 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" t="s">
         <v>206</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" t="s">
         <v>148</v>
       </c>
-      <c r="G64" s="18" t="s">
+      <c r="G64" s="7" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3873,13 +3852,13 @@
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" t="s">
         <v>207</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="F65" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3896,13 +3875,13 @@
       <c r="D66">
         <v>1</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" t="s">
         <v>207</v>
       </c>
-      <c r="F66" s="16" t="s">
+      <c r="F66" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3922,7 +3901,7 @@
       <c r="E67" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" t="s">
         <v>36</v>
       </c>
       <c r="G67" t="s">
@@ -3942,13 +3921,13 @@
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" t="s">
         <v>46</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" t="s">
         <v>46</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G68" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3968,19 +3947,19 @@
       <c r="E69" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F69" s="16" t="s">
+      <c r="F69" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G69" s="20" t="s">
+      <c r="G69" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H69" s="15" t="s">
+      <c r="H69" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J69" s="15" t="s">
+      <c r="J69" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3997,13 +3976,13 @@
       <c r="D70">
         <v>1</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" t="s">
         <v>46</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" t="s">
         <v>46</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G70" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4020,13 +3999,13 @@
       <c r="D71">
         <v>1</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" t="s">
         <v>69</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" t="s">
         <v>69</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="G71" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4043,13 +4022,13 @@
       <c r="D72">
         <v>1</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" t="s">
         <v>148</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="F72" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G72" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4066,13 +4045,13 @@
       <c r="D73">
         <v>1</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" t="s">
         <v>69</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" t="s">
         <v>69</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G73" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4089,13 +4068,13 @@
       <c r="D74">
         <v>1</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" t="s">
         <v>69</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G74" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4112,10 +4091,10 @@
       <c r="D75">
         <v>1</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" t="s">
         <v>208</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G75" t="s">
@@ -4135,13 +4114,13 @@
       <c r="D76">
         <v>1</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" t="s">
         <v>61</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" t="s">
         <v>61</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G76" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4161,10 +4140,10 @@
       <c r="E77" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" t="s">
         <v>77</v>
       </c>
-      <c r="G77" s="20" t="s">
+      <c r="G77" s="5" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4184,7 +4163,7 @@
       <c r="E78" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F78" s="16" t="s">
+      <c r="F78" s="10" t="s">
         <v>69</v>
       </c>
       <c r="G78" s="5" t="s">
@@ -4204,13 +4183,13 @@
       <c r="D79">
         <v>1</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" t="s">
         <v>69</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" t="s">
         <v>69</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G79" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4230,7 +4209,7 @@
       <c r="E80" t="s">
         <v>32</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" t="s">
         <v>32</v>
       </c>
       <c r="G80" t="s">
@@ -4268,10 +4247,10 @@
       <c r="D81">
         <v>1</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" t="s">
         <v>72</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="F81" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G81" t="s">
@@ -4309,31 +4288,31 @@
       <c r="D82">
         <v>1</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" t="s">
         <v>42</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="F82" t="s">
         <v>42</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="G82" t="s">
         <v>42</v>
       </c>
-      <c r="H82" s="9" t="s">
+      <c r="H82" t="s">
         <v>43</v>
       </c>
       <c r="I82" t="s">
         <v>43</v>
       </c>
-      <c r="J82" s="9" t="s">
+      <c r="J82" t="s">
         <v>43</v>
       </c>
-      <c r="K82" s="9" t="s">
+      <c r="K82" t="s">
         <v>161</v>
       </c>
       <c r="L82" t="s">
         <v>34</v>
       </c>
-      <c r="M82" s="9" t="s">
+      <c r="M82" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4350,31 +4329,31 @@
       <c r="D83">
         <v>1</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" t="s">
         <v>42</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="G83" t="s">
         <v>42</v>
       </c>
-      <c r="H83" s="9" t="s">
+      <c r="H83" t="s">
         <v>44</v>
       </c>
       <c r="I83" t="s">
         <v>44</v>
       </c>
-      <c r="J83" s="9" t="s">
+      <c r="J83" t="s">
         <v>44</v>
       </c>
-      <c r="K83" s="9" t="s">
+      <c r="K83" t="s">
         <v>162</v>
       </c>
       <c r="L83" t="s">
         <v>45</v>
       </c>
-      <c r="M83" s="9" t="s">
+      <c r="M83" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4391,31 +4370,31 @@
       <c r="D84">
         <v>1</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" t="s">
         <v>32</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" t="s">
         <v>32</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="G84" t="s">
         <v>32</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H84" t="s">
         <v>48</v>
       </c>
       <c r="I84" t="s">
         <v>48</v>
       </c>
-      <c r="J84" s="7" t="s">
+      <c r="J84" t="s">
         <v>48</v>
       </c>
-      <c r="K84" s="7" t="s">
+      <c r="K84" t="s">
         <v>163</v>
       </c>
       <c r="L84" t="s">
         <v>49</v>
       </c>
-      <c r="M84" s="7" t="s">
+      <c r="M84" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4432,13 +4411,13 @@
       <c r="D85">
         <v>1</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" t="s">
         <v>29</v>
       </c>
-      <c r="F85" s="16" t="s">
+      <c r="F85" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="G85" t="s">
         <v>29</v>
       </c>
       <c r="H85" t="s">
@@ -4450,10 +4429,10 @@
       <c r="J85" t="s">
         <v>71</v>
       </c>
-      <c r="K85" s="7" t="s">
+      <c r="K85" t="s">
         <v>212</v>
       </c>
-      <c r="L85" s="7" t="s">
+      <c r="L85" t="s">
         <v>39</v>
       </c>
       <c r="M85" t="s">
@@ -4473,28 +4452,28 @@
       <c r="D86" t="s">
         <v>9</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" t="s">
         <v>72</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" t="s">
         <v>72</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="G86" t="s">
         <v>72</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H86" t="s">
         <v>71</v>
       </c>
       <c r="I86" t="s">
         <v>71</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="J86" t="s">
         <v>71</v>
       </c>
-      <c r="K86" s="7" t="s">
+      <c r="K86" t="s">
         <v>213</v>
       </c>
-      <c r="L86" s="7" t="s">
+      <c r="L86" t="s">
         <v>39</v>
       </c>
       <c r="M86" t="s">
@@ -4514,16 +4493,16 @@
       <c r="D87">
         <v>1</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" t="s">
         <v>72</v>
       </c>
-      <c r="F87" s="14" t="s">
+      <c r="F87" t="s">
         <v>73</v>
       </c>
-      <c r="G87" s="18" t="s">
+      <c r="G87" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H87" s="14" t="s">
+      <c r="H87" t="s">
         <v>71</v>
       </c>
       <c r="I87" t="s">
@@ -4532,10 +4511,10 @@
       <c r="J87" t="s">
         <v>71</v>
       </c>
-      <c r="K87" s="7" t="s">
+      <c r="K87" t="s">
         <v>214</v>
       </c>
-      <c r="L87" s="7" t="s">
+      <c r="L87" t="s">
         <v>39</v>
       </c>
       <c r="M87" t="s">
@@ -4555,31 +4534,31 @@
       <c r="D88">
         <v>1</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" t="s">
         <v>72</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" t="s">
         <v>73</v>
       </c>
-      <c r="G88" s="18" t="s">
+      <c r="G88" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H88" s="14" t="s">
+      <c r="H88" t="s">
         <v>74</v>
       </c>
       <c r="I88" t="s">
         <v>74</v>
       </c>
-      <c r="J88" s="14" t="s">
+      <c r="J88" t="s">
         <v>74</v>
       </c>
-      <c r="K88" s="14" t="s">
+      <c r="K88" t="s">
         <v>215</v>
       </c>
-      <c r="L88" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M88" s="14" t="s">
+      <c r="L88" t="s">
+        <v>39</v>
+      </c>
+      <c r="M88" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4596,16 +4575,16 @@
       <c r="D89">
         <v>1</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" t="s">
         <v>75</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" t="s">
         <v>75</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="G89" t="s">
         <v>75</v>
       </c>
-      <c r="H89" s="14" t="s">
+      <c r="H89" t="s">
         <v>76</v>
       </c>
       <c r="I89" t="s">
@@ -4614,10 +4593,10 @@
       <c r="J89" t="s">
         <v>76</v>
       </c>
-      <c r="K89" s="14" t="s">
+      <c r="K89" t="s">
         <v>216</v>
       </c>
-      <c r="L89" s="7" t="s">
+      <c r="L89" t="s">
         <v>39</v>
       </c>
       <c r="M89" t="s">
@@ -4637,28 +4616,28 @@
       <c r="D90">
         <v>1</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" t="s">
         <v>32</v>
       </c>
-      <c r="F90" s="16" t="s">
+      <c r="F90" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G90" s="7" t="s">
+      <c r="G90" t="s">
         <v>32</v>
       </c>
-      <c r="H90" s="14" t="s">
+      <c r="H90" t="s">
         <v>74</v>
       </c>
       <c r="I90" t="s">
         <v>74</v>
       </c>
-      <c r="J90" s="14" t="s">
+      <c r="J90" t="s">
         <v>74</v>
       </c>
-      <c r="K90" s="14" t="s">
+      <c r="K90" t="s">
         <v>217</v>
       </c>
-      <c r="L90" s="7" t="s">
+      <c r="L90" t="s">
         <v>39</v>
       </c>
       <c r="M90" t="s">
@@ -4678,28 +4657,28 @@
       <c r="D91">
         <v>1</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" t="s">
         <v>32</v>
       </c>
-      <c r="F91" s="16" t="s">
+      <c r="F91" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="G91" t="s">
         <v>32</v>
       </c>
-      <c r="H91" s="14" t="s">
+      <c r="H91" t="s">
         <v>76</v>
       </c>
       <c r="I91" t="s">
         <v>76</v>
       </c>
-      <c r="J91" s="14" t="s">
+      <c r="J91" t="s">
         <v>76</v>
       </c>
-      <c r="K91" s="14" t="s">
+      <c r="K91" t="s">
         <v>218</v>
       </c>
-      <c r="L91" s="7" t="s">
+      <c r="L91" t="s">
         <v>39</v>
       </c>
       <c r="M91" t="s">
@@ -4719,16 +4698,16 @@
       <c r="D92">
         <v>1</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" t="s">
         <v>32</v>
       </c>
-      <c r="F92" s="16" t="s">
+      <c r="F92" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="G92" t="s">
         <v>32</v>
       </c>
-      <c r="H92" s="14" t="s">
+      <c r="H92" t="s">
         <v>81</v>
       </c>
       <c r="I92" t="s">
@@ -4737,10 +4716,10 @@
       <c r="J92" t="s">
         <v>81</v>
       </c>
-      <c r="K92" s="14" t="s">
+      <c r="K92" t="s">
         <v>163</v>
       </c>
-      <c r="L92" s="7" t="s">
+      <c r="L92" t="s">
         <v>39</v>
       </c>
       <c r="M92" t="s">
@@ -4760,13 +4739,13 @@
       <c r="D93">
         <v>1</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" t="s">
         <v>75</v>
       </c>
-      <c r="F93" s="16" t="s">
+      <c r="F93" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G93" s="7" t="s">
+      <c r="G93" t="s">
         <v>75</v>
       </c>
       <c r="H93" t="s">
@@ -4778,10 +4757,10 @@
       <c r="J93" t="s">
         <v>74</v>
       </c>
-      <c r="K93" s="14" t="s">
+      <c r="K93" t="s">
         <v>219</v>
       </c>
-      <c r="L93" s="7" t="s">
+      <c r="L93" t="s">
         <v>39</v>
       </c>
       <c r="M93" t="s">
@@ -4801,13 +4780,13 @@
       <c r="D94">
         <v>1</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" t="s">
         <v>32</v>
       </c>
-      <c r="F94" s="16" t="s">
+      <c r="F94" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G94" s="7" t="s">
+      <c r="G94" t="s">
         <v>32</v>
       </c>
       <c r="H94" t="s">
@@ -4819,13 +4798,13 @@
       <c r="J94" t="s">
         <v>76</v>
       </c>
-      <c r="K94" s="14" t="s">
+      <c r="K94" t="s">
         <v>220</v>
       </c>
-      <c r="L94" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M94" s="14" t="s">
+      <c r="L94" t="s">
+        <v>39</v>
+      </c>
+      <c r="M94" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4842,10 +4821,10 @@
       <c r="D95">
         <v>1</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" t="s">
         <v>32</v>
       </c>
-      <c r="F95" s="16" t="s">
+      <c r="F95" s="10" t="s">
         <v>68</v>
       </c>
       <c r="G95" t="s">
@@ -4860,13 +4839,13 @@
       <c r="J95" t="s">
         <v>84</v>
       </c>
-      <c r="K95" s="14" t="s">
+      <c r="K95" t="s">
         <v>221</v>
       </c>
-      <c r="L95" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M95" s="14" t="s">
+      <c r="L95" t="s">
+        <v>39</v>
+      </c>
+      <c r="M95" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4883,10 +4862,10 @@
       <c r="D96">
         <v>1</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" t="s">
         <v>42</v>
       </c>
-      <c r="F96" s="16" t="s">
+      <c r="F96" s="10" t="s">
         <v>77</v>
       </c>
       <c r="G96" t="s">
@@ -4895,16 +4874,16 @@
       <c r="H96" t="s">
         <v>222</v>
       </c>
-      <c r="I96" s="11" t="s">
+      <c r="I96" s="8" t="s">
         <v>74</v>
       </c>
       <c r="J96" t="s">
         <v>222</v>
       </c>
-      <c r="K96" s="14" t="s">
+      <c r="K96" t="s">
         <v>223</v>
       </c>
-      <c r="L96" s="14" t="s">
+      <c r="L96" t="s">
         <v>39</v>
       </c>
       <c r="M96" t="s">
@@ -4924,31 +4903,31 @@
       <c r="D97">
         <v>1</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" t="s">
         <v>42</v>
       </c>
-      <c r="F97" s="16" t="s">
+      <c r="F97" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G97" s="7" t="s">
+      <c r="G97" t="s">
         <v>42</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H97" t="s">
         <v>224</v>
       </c>
-      <c r="I97" s="11" t="s">
+      <c r="I97" s="8" t="s">
         <v>76</v>
       </c>
       <c r="J97" t="s">
         <v>224</v>
       </c>
-      <c r="K97" s="14" t="s">
+      <c r="K97" t="s">
         <v>225</v>
       </c>
-      <c r="L97" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M97" s="14" t="s">
+      <c r="L97" t="s">
+        <v>39</v>
+      </c>
+      <c r="M97" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4965,31 +4944,31 @@
       <c r="D98">
         <v>1</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" t="s">
         <v>72</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" t="s">
         <v>72</v>
       </c>
-      <c r="G98" s="7" t="s">
+      <c r="G98" t="s">
         <v>72</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="H98" t="s">
         <v>90</v>
       </c>
       <c r="I98" t="s">
         <v>90</v>
       </c>
-      <c r="J98" s="7" t="s">
+      <c r="J98" t="s">
         <v>90</v>
       </c>
-      <c r="K98" s="14" t="s">
+      <c r="K98" t="s">
         <v>226</v>
       </c>
-      <c r="L98" s="19" t="s">
+      <c r="L98" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="M98" s="14" t="s">
+      <c r="M98" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5006,31 +4985,31 @@
       <c r="D99" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" t="s">
         <v>32</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" t="s">
         <v>32</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="G99" t="s">
         <v>32</v>
       </c>
-      <c r="H99" s="7" t="s">
+      <c r="H99" t="s">
         <v>111</v>
       </c>
       <c r="I99" t="s">
         <v>111</v>
       </c>
-      <c r="J99" s="7" t="s">
+      <c r="J99" t="s">
         <v>111</v>
       </c>
-      <c r="K99" s="14" t="s">
+      <c r="K99" t="s">
         <v>227</v>
       </c>
-      <c r="L99" s="19" t="s">
+      <c r="L99" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="M99" s="14" t="s">
+      <c r="M99" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5047,28 +5026,28 @@
       <c r="D100">
         <v>1</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" t="s">
         <v>72</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" t="s">
         <v>72</v>
       </c>
-      <c r="G100" s="7" t="s">
+      <c r="G100" t="s">
         <v>72</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H100" t="s">
         <v>117</v>
       </c>
       <c r="I100" t="s">
         <v>117</v>
       </c>
-      <c r="J100" s="7" t="s">
+      <c r="J100" t="s">
         <v>117</v>
       </c>
-      <c r="K100" s="14" t="s">
+      <c r="K100" t="s">
         <v>228</v>
       </c>
-      <c r="L100" s="14" t="s">
+      <c r="L100" t="s">
         <v>39</v>
       </c>
       <c r="M100" t="s">
@@ -5088,13 +5067,13 @@
       <c r="D101">
         <v>1</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" t="s">
         <v>29</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" t="s">
         <v>120</v>
       </c>
-      <c r="G101" s="18" t="s">
+      <c r="G101" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H101" t="s">
@@ -5106,10 +5085,10 @@
       <c r="J101" t="s">
         <v>74</v>
       </c>
-      <c r="K101" s="14" t="s">
+      <c r="K101" t="s">
         <v>229</v>
       </c>
-      <c r="L101" s="19" t="s">
+      <c r="L101" s="10" t="s">
         <v>49</v>
       </c>
       <c r="M101" t="s">
@@ -5129,13 +5108,13 @@
       <c r="D102">
         <v>1</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" t="s">
         <v>75</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F102" t="s">
         <v>75</v>
       </c>
-      <c r="G102" s="7" t="s">
+      <c r="G102" t="s">
         <v>75</v>
       </c>
       <c r="H102" t="s">
@@ -5147,10 +5126,10 @@
       <c r="J102" t="s">
         <v>74</v>
       </c>
-      <c r="K102" s="14" t="s">
+      <c r="K102" t="s">
         <v>230</v>
       </c>
-      <c r="L102" s="9" t="s">
+      <c r="L102" t="s">
         <v>39</v>
       </c>
       <c r="M102" t="s">
@@ -5170,13 +5149,13 @@
       <c r="D103">
         <v>1</v>
       </c>
-      <c r="E103" s="14" t="s">
+      <c r="E103" t="s">
         <v>231</v>
       </c>
-      <c r="F103" s="17" t="s">
+      <c r="F103" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G103" s="17" t="s">
+      <c r="G103" s="6" t="s">
         <v>231</v>
       </c>
       <c r="H103" t="s">
@@ -5188,10 +5167,10 @@
       <c r="J103" t="s">
         <v>74</v>
       </c>
-      <c r="K103" s="14" t="s">
+      <c r="K103" t="s">
         <v>226</v>
       </c>
-      <c r="L103" s="9" t="s">
+      <c r="L103" t="s">
         <v>39</v>
       </c>
       <c r="M103" t="s">
@@ -5211,10 +5190,10 @@
       <c r="D104">
         <v>1</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" t="s">
         <v>72</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" t="s">
         <v>72</v>
       </c>
       <c r="H104" t="s">
@@ -5226,10 +5205,10 @@
       <c r="J104" t="s">
         <v>76</v>
       </c>
-      <c r="K104" s="14" t="s">
+      <c r="K104" t="s">
         <v>234</v>
       </c>
-      <c r="L104" s="14" t="s">
+      <c r="L104" t="s">
         <v>39</v>
       </c>
       <c r="M104" t="s">
@@ -5249,13 +5228,13 @@
       <c r="D105">
         <v>1</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" t="s">
         <v>75</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F105" t="s">
         <v>124</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G105" s="7" t="s">
         <v>75</v>
       </c>
       <c r="H105" t="s">
@@ -5267,10 +5246,10 @@
       <c r="J105" t="s">
         <v>84</v>
       </c>
-      <c r="K105" s="14" t="s">
+      <c r="K105" t="s">
         <v>162</v>
       </c>
-      <c r="L105" s="14" t="s">
+      <c r="L105" t="s">
         <v>39</v>
       </c>
       <c r="M105" t="s">
@@ -5290,13 +5269,13 @@
       <c r="D106">
         <v>1</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E106" t="s">
         <v>32</v>
       </c>
-      <c r="F106" s="10" t="s">
+      <c r="F106" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G106" s="7" t="s">
+      <c r="G106" t="s">
         <v>32</v>
       </c>
       <c r="H106" t="s">
@@ -5308,13 +5287,13 @@
       <c r="J106" t="s">
         <v>76</v>
       </c>
-      <c r="K106" s="14" t="s">
+      <c r="K106" t="s">
         <v>218</v>
       </c>
-      <c r="L106" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M106" s="14" t="s">
+      <c r="L106" t="s">
+        <v>39</v>
+      </c>
+      <c r="M106" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5331,13 +5310,13 @@
       <c r="D107">
         <v>1</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E107" t="s">
         <v>75</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" t="s">
         <v>75</v>
       </c>
-      <c r="G107" s="7" t="s">
+      <c r="G107" t="s">
         <v>75</v>
       </c>
       <c r="H107" t="s">
@@ -5349,13 +5328,13 @@
       <c r="J107" t="s">
         <v>74</v>
       </c>
-      <c r="K107" s="14" t="s">
+      <c r="K107" t="s">
         <v>158</v>
       </c>
-      <c r="L107" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M107" s="14" t="s">
+      <c r="L107" t="s">
+        <v>39</v>
+      </c>
+      <c r="M107" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5372,16 +5351,16 @@
       <c r="D108">
         <v>1</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E108" t="s">
         <v>42</v>
       </c>
-      <c r="F108" s="16" t="s">
+      <c r="F108" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G108" s="7" t="s">
+      <c r="G108" t="s">
         <v>42</v>
       </c>
-      <c r="H108" s="7" t="s">
+      <c r="H108" t="s">
         <v>74</v>
       </c>
       <c r="I108" t="s">
@@ -5390,13 +5369,13 @@
       <c r="J108" t="s">
         <v>74</v>
       </c>
-      <c r="K108" s="14" t="s">
+      <c r="K108" t="s">
         <v>215</v>
       </c>
-      <c r="L108" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M108" s="14" t="s">
+      <c r="L108" t="s">
+        <v>39</v>
+      </c>
+      <c r="M108" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5413,31 +5392,31 @@
       <c r="D109">
         <v>1</v>
       </c>
-      <c r="E109" s="14" t="s">
+      <c r="E109" t="s">
         <v>232</v>
       </c>
-      <c r="F109" s="17" t="s">
+      <c r="F109" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G109" s="17" t="s">
+      <c r="G109" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="H109" s="14" t="s">
+      <c r="H109" t="s">
         <v>71</v>
       </c>
       <c r="I109" t="s">
         <v>71</v>
       </c>
-      <c r="J109" s="14" t="s">
+      <c r="J109" t="s">
         <v>71</v>
       </c>
-      <c r="K109" s="14" t="s">
+      <c r="K109" t="s">
         <v>235</v>
       </c>
-      <c r="L109" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M109" s="14" t="s">
+      <c r="L109" t="s">
+        <v>39</v>
+      </c>
+      <c r="M109" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5454,31 +5433,31 @@
       <c r="D110">
         <v>1</v>
       </c>
-      <c r="E110" s="14" t="s">
+      <c r="E110" t="s">
         <v>233</v>
       </c>
-      <c r="F110" s="17" t="s">
+      <c r="F110" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G110" s="17" t="s">
+      <c r="G110" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="H110" s="14" t="s">
+      <c r="H110" t="s">
         <v>137</v>
       </c>
       <c r="I110" t="s">
         <v>137</v>
       </c>
-      <c r="J110" s="14" t="s">
+      <c r="J110" t="s">
         <v>137</v>
       </c>
-      <c r="K110" s="14" t="s">
+      <c r="K110" t="s">
         <v>236</v>
       </c>
-      <c r="L110" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M110" s="14" t="s">
+      <c r="L110" t="s">
+        <v>39</v>
+      </c>
+      <c r="M110" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5495,13 +5474,13 @@
       <c r="D111">
         <v>1</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E111" t="s">
         <v>72</v>
       </c>
-      <c r="F111" s="10" t="s">
+      <c r="F111" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G111" s="7" t="s">
+      <c r="G111" t="s">
         <v>72</v>
       </c>
       <c r="H111" t="s">
@@ -5513,13 +5492,13 @@
       <c r="J111" t="s">
         <v>74</v>
       </c>
-      <c r="K111" s="14" t="s">
+      <c r="K111" t="s">
         <v>160</v>
       </c>
-      <c r="L111" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M111" s="14" t="s">
+      <c r="L111" t="s">
+        <v>39</v>
+      </c>
+      <c r="M111" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5536,13 +5515,13 @@
       <c r="D112">
         <v>1</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E112" t="s">
         <v>72</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F112" t="s">
         <v>72</v>
       </c>
-      <c r="G112" s="7" t="s">
+      <c r="G112" t="s">
         <v>72</v>
       </c>
       <c r="H112" t="s">
@@ -5554,13 +5533,13 @@
       <c r="J112" t="s">
         <v>71</v>
       </c>
-      <c r="K112" s="14" t="s">
+      <c r="K112" t="s">
         <v>237</v>
       </c>
-      <c r="L112" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M112" s="14" t="s">
+      <c r="L112" t="s">
+        <v>39</v>
+      </c>
+      <c r="M112" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5577,13 +5556,13 @@
       <c r="D113">
         <v>1</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E113" t="s">
         <v>32</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" t="s">
         <v>32</v>
       </c>
-      <c r="G113" s="7" t="s">
+      <c r="G113" t="s">
         <v>32</v>
       </c>
       <c r="H113" t="s">
@@ -5595,13 +5574,13 @@
       <c r="J113" t="s">
         <v>137</v>
       </c>
-      <c r="K113" s="14" t="s">
+      <c r="K113" t="s">
         <v>238</v>
       </c>
-      <c r="L113" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M113" s="14" t="s">
+      <c r="L113" t="s">
+        <v>39</v>
+      </c>
+      <c r="M113" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5618,13 +5597,13 @@
       <c r="D114">
         <v>1</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="E114" t="s">
         <v>29</v>
       </c>
-      <c r="F114" s="10" t="s">
+      <c r="F114" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G114" s="7" t="s">
+      <c r="G114" t="s">
         <v>29</v>
       </c>
       <c r="H114" t="s">
@@ -5636,13 +5615,13 @@
       <c r="J114" t="s">
         <v>144</v>
       </c>
-      <c r="K114" s="14" t="s">
+      <c r="K114" t="s">
         <v>239</v>
       </c>
-      <c r="L114" s="19" t="s">
+      <c r="L114" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="M114" s="14" t="s">
+      <c r="M114" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5659,13 +5638,13 @@
       <c r="D115">
         <v>1</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E115" t="s">
         <v>72</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F115" t="s">
         <v>72</v>
       </c>
-      <c r="G115" s="7" t="s">
+      <c r="G115" t="s">
         <v>72</v>
       </c>
       <c r="H115" t="s">
@@ -5677,13 +5656,13 @@
       <c r="J115" t="s">
         <v>149</v>
       </c>
-      <c r="K115" s="14" t="s">
+      <c r="K115" t="s">
         <v>240</v>
       </c>
-      <c r="L115" s="19" t="s">
+      <c r="L115" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="M115" s="14" t="s">
+      <c r="M115" t="s">
         <v>240</v>
       </c>
     </row>
@@ -5700,31 +5679,31 @@
       <c r="D116">
         <v>1</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E116" t="s">
         <v>72</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" t="s">
         <v>72</v>
       </c>
-      <c r="G116" s="7" t="s">
+      <c r="G116" t="s">
         <v>72</v>
       </c>
-      <c r="H116" s="7" t="s">
+      <c r="H116" t="s">
         <v>151</v>
       </c>
       <c r="I116" t="s">
         <v>151</v>
       </c>
-      <c r="J116" s="7" t="s">
+      <c r="J116" t="s">
         <v>151</v>
       </c>
-      <c r="K116" s="14" t="s">
+      <c r="K116" t="s">
         <v>241</v>
       </c>
-      <c r="L116" s="19" t="s">
+      <c r="L116" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M116" s="14" t="s">
+      <c r="M116" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5741,31 +5720,31 @@
       <c r="D117">
         <v>1</v>
       </c>
-      <c r="E117" s="17" t="s">
+      <c r="E117" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F117" t="s">
         <v>36</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H117" s="7" t="s">
+      <c r="H117" t="s">
         <v>50</v>
       </c>
       <c r="I117" t="s">
         <v>50</v>
       </c>
-      <c r="J117" s="7" t="s">
+      <c r="J117" t="s">
         <v>50</v>
       </c>
-      <c r="K117" s="14" t="s">
+      <c r="K117" t="s">
         <v>247</v>
       </c>
-      <c r="L117" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M117" s="14" t="s">
+      <c r="L117" t="s">
+        <v>39</v>
+      </c>
+      <c r="M117" t="s">
         <v>247</v>
       </c>
       <c r="N117" t="s">
@@ -5800,31 +5779,31 @@
       <c r="D118">
         <v>1</v>
       </c>
-      <c r="E118" s="17" t="s">
+      <c r="E118" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="F118" t="s">
         <v>36</v>
       </c>
       <c r="G118" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H118" s="7" t="s">
+      <c r="H118" t="s">
         <v>52</v>
       </c>
       <c r="I118" t="s">
         <v>52</v>
       </c>
-      <c r="J118" s="7" t="s">
+      <c r="J118" t="s">
         <v>52</v>
       </c>
-      <c r="K118" s="14" t="s">
+      <c r="K118" t="s">
         <v>249</v>
       </c>
-      <c r="L118" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M118" s="14" t="s">
+      <c r="L118" t="s">
+        <v>39</v>
+      </c>
+      <c r="M118" t="s">
         <v>249</v>
       </c>
       <c r="N118" t="s">
@@ -5859,31 +5838,31 @@
       <c r="D119">
         <v>1</v>
       </c>
-      <c r="E119" s="17" t="s">
+      <c r="E119" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F119" t="s">
         <v>36</v>
       </c>
       <c r="G119" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H119" s="7" t="s">
+      <c r="H119" t="s">
         <v>54</v>
       </c>
       <c r="I119" t="s">
         <v>54</v>
       </c>
-      <c r="J119" s="7" t="s">
+      <c r="J119" t="s">
         <v>54</v>
       </c>
-      <c r="K119" s="14" t="s">
+      <c r="K119" t="s">
         <v>250</v>
       </c>
-      <c r="L119" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M119" s="14" t="s">
+      <c r="L119" t="s">
+        <v>39</v>
+      </c>
+      <c r="M119" t="s">
         <v>250</v>
       </c>
       <c r="N119" t="s">
@@ -5918,10 +5897,10 @@
       <c r="D120">
         <v>1</v>
       </c>
-      <c r="E120" s="17" t="s">
+      <c r="E120" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F120" s="10" t="s">
+      <c r="F120" s="8" t="s">
         <v>58</v>
       </c>
       <c r="G120" s="6" t="s">
@@ -5936,10 +5915,10 @@
       <c r="J120" t="s">
         <v>59</v>
       </c>
-      <c r="K120" s="14" t="s">
+      <c r="K120" t="s">
         <v>242</v>
       </c>
-      <c r="L120" s="9" t="s">
+      <c r="L120" t="s">
         <v>39</v>
       </c>
       <c r="M120" t="s">
@@ -5977,10 +5956,10 @@
       <c r="D121">
         <v>2</v>
       </c>
-      <c r="E121" s="17" t="s">
+      <c r="E121" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F121" s="10" t="s">
+      <c r="F121" s="8" t="s">
         <v>63</v>
       </c>
       <c r="G121" s="6" t="s">
@@ -5995,13 +5974,13 @@
       <c r="J121" t="s">
         <v>64</v>
       </c>
-      <c r="K121" s="14" t="s">
+      <c r="K121" t="s">
         <v>168</v>
       </c>
-      <c r="L121" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M121" s="14" t="s">
+      <c r="L121" t="s">
+        <v>39</v>
+      </c>
+      <c r="M121" t="s">
         <v>168</v>
       </c>
       <c r="N121" t="s">
@@ -6036,10 +6015,10 @@
       <c r="D122">
         <v>1</v>
       </c>
-      <c r="E122" s="17" t="s">
+      <c r="E122" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="F122" t="s">
         <v>31</v>
       </c>
       <c r="G122" s="6" t="s">
@@ -6054,13 +6033,13 @@
       <c r="J122" t="s">
         <v>74</v>
       </c>
-      <c r="K122" s="14" t="s">
+      <c r="K122" t="s">
         <v>245</v>
       </c>
-      <c r="L122" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M122" s="14" t="s">
+      <c r="L122" t="s">
+        <v>39</v>
+      </c>
+      <c r="M122" t="s">
         <v>245</v>
       </c>
       <c r="N122" t="s">
@@ -6095,13 +6074,13 @@
       <c r="D123">
         <v>1</v>
       </c>
-      <c r="E123" s="17" t="s">
+      <c r="E123" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F123" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G123" s="17" t="s">
+      <c r="F123" t="s">
+        <v>31</v>
+      </c>
+      <c r="G123" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H123" t="s">
@@ -6113,22 +6092,22 @@
       <c r="J123" t="s">
         <v>76</v>
       </c>
-      <c r="K123" s="14" t="s">
+      <c r="K123" t="s">
         <v>251</v>
       </c>
-      <c r="L123" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M123" s="14" t="s">
+      <c r="L123" t="s">
+        <v>39</v>
+      </c>
+      <c r="M123" t="s">
         <v>251</v>
       </c>
-      <c r="N123" s="14" t="s">
+      <c r="N123" t="s">
         <v>79</v>
       </c>
       <c r="O123" t="s">
         <v>79</v>
       </c>
-      <c r="P123" s="14" t="s">
+      <c r="P123" t="s">
         <v>79</v>
       </c>
       <c r="Q123" t="s">
@@ -6154,13 +6133,13 @@
       <c r="D124">
         <v>1</v>
       </c>
-      <c r="E124" s="17" t="s">
+      <c r="E124" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="F124" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G124" s="17" t="s">
+      <c r="F124" t="s">
+        <v>31</v>
+      </c>
+      <c r="G124" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H124" t="s">
@@ -6213,49 +6192,49 @@
       <c r="D125">
         <v>1</v>
       </c>
-      <c r="E125" s="17" t="s">
+      <c r="E125" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F125" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G125" s="17" t="s">
+      <c r="F125" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H125" t="s">
         <v>253</v>
       </c>
-      <c r="I125" s="11" t="s">
+      <c r="I125" s="8" t="s">
         <v>74</v>
       </c>
       <c r="J125" t="s">
         <v>253</v>
       </c>
-      <c r="K125" s="14" t="s">
+      <c r="K125" t="s">
         <v>254</v>
       </c>
-      <c r="L125" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M125" s="14" t="s">
+      <c r="L125" t="s">
+        <v>39</v>
+      </c>
+      <c r="M125" t="s">
         <v>254</v>
       </c>
-      <c r="N125" s="14" t="s">
+      <c r="N125" t="s">
         <v>85</v>
       </c>
       <c r="O125" t="s">
         <v>85</v>
       </c>
-      <c r="P125" s="14" t="s">
+      <c r="P125" t="s">
         <v>85</v>
       </c>
-      <c r="Q125" s="14" t="s">
+      <c r="Q125" t="s">
         <v>255</v>
       </c>
       <c r="R125" t="s">
         <v>39</v>
       </c>
-      <c r="S125" s="14" t="s">
+      <c r="S125" t="s">
         <v>255</v>
       </c>
     </row>
@@ -6272,13 +6251,13 @@
       <c r="D126">
         <v>1</v>
       </c>
-      <c r="E126" s="17" t="s">
+      <c r="E126" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F126" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G126" s="17" t="s">
+      <c r="F126" t="s">
+        <v>31</v>
+      </c>
+      <c r="G126" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H126" t="s">
@@ -6290,31 +6269,31 @@
       <c r="J126" t="s">
         <v>92</v>
       </c>
-      <c r="K126" s="14" t="s">
+      <c r="K126" t="s">
         <v>256</v>
       </c>
-      <c r="L126" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M126" s="14" t="s">
+      <c r="L126" t="s">
+        <v>39</v>
+      </c>
+      <c r="M126" t="s">
         <v>256</v>
       </c>
-      <c r="N126" s="14" t="s">
+      <c r="N126" t="s">
         <v>257</v>
       </c>
-      <c r="O126" s="19" t="s">
+      <c r="O126" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="P126" s="14" t="s">
+      <c r="P126" t="s">
         <v>257</v>
       </c>
-      <c r="Q126" s="14" t="s">
+      <c r="Q126" t="s">
         <v>244</v>
       </c>
       <c r="R126" t="s">
         <v>39</v>
       </c>
-      <c r="S126" s="14" t="s">
+      <c r="S126" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6331,10 +6310,10 @@
       <c r="D127">
         <v>1</v>
       </c>
-      <c r="E127" s="17" t="s">
+      <c r="E127" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F127" s="10" t="s">
+      <c r="F127" s="8" t="s">
         <v>77</v>
       </c>
       <c r="G127" s="6" t="s">
@@ -6349,31 +6328,31 @@
       <c r="J127" t="s">
         <v>74</v>
       </c>
-      <c r="K127" s="20" t="s">
+      <c r="K127" s="5" t="s">
         <v>259</v>
       </c>
       <c r="L127" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M127" s="20" t="s">
+      <c r="M127" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="N127" s="14" t="s">
+      <c r="N127" t="s">
         <v>94</v>
       </c>
       <c r="O127" t="s">
         <v>94</v>
       </c>
-      <c r="P127" s="14" t="s">
+      <c r="P127" t="s">
         <v>94</v>
       </c>
-      <c r="Q127" s="14" t="s">
+      <c r="Q127" t="s">
         <v>246</v>
       </c>
-      <c r="R127" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S127" s="14" t="s">
+      <c r="R127" t="s">
+        <v>39</v>
+      </c>
+      <c r="S127" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6390,10 +6369,10 @@
       <c r="D128">
         <v>1</v>
       </c>
-      <c r="E128" s="17" t="s">
+      <c r="E128" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F128" s="10" t="s">
+      <c r="F128" s="8" t="s">
         <v>72</v>
       </c>
       <c r="G128" s="6" t="s">
@@ -6408,13 +6387,13 @@
       <c r="J128" t="s">
         <v>74</v>
       </c>
-      <c r="K128" s="14" t="s">
+      <c r="K128" t="s">
         <v>254</v>
       </c>
-      <c r="L128" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M128" s="14" t="s">
+      <c r="L128" t="s">
+        <v>39</v>
+      </c>
+      <c r="M128" t="s">
         <v>254</v>
       </c>
       <c r="N128" t="s">
@@ -6426,13 +6405,13 @@
       <c r="P128" t="s">
         <v>260</v>
       </c>
-      <c r="Q128" s="14" t="s">
+      <c r="Q128" t="s">
         <v>246</v>
       </c>
-      <c r="R128" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S128" s="14" t="s">
+      <c r="R128" t="s">
+        <v>39</v>
+      </c>
+      <c r="S128" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6449,49 +6428,49 @@
       <c r="D129">
         <v>1</v>
       </c>
-      <c r="E129" s="17" t="s">
+      <c r="E129" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="F129" t="s">
         <v>46</v>
       </c>
       <c r="G129" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H129" s="7" t="s">
+      <c r="H129" t="s">
         <v>96</v>
       </c>
       <c r="I129" t="s">
         <v>96</v>
       </c>
-      <c r="J129" s="7" t="s">
+      <c r="J129" t="s">
         <v>96</v>
       </c>
-      <c r="K129" s="14" t="s">
+      <c r="K129" t="s">
         <v>261</v>
       </c>
-      <c r="L129" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M129" s="14" t="s">
+      <c r="L129" t="s">
+        <v>39</v>
+      </c>
+      <c r="M129" t="s">
         <v>261</v>
       </c>
-      <c r="N129" s="14" t="s">
+      <c r="N129" t="s">
         <v>97</v>
       </c>
       <c r="O129" t="s">
         <v>97</v>
       </c>
-      <c r="P129" s="14" t="s">
+      <c r="P129" t="s">
         <v>97</v>
       </c>
-      <c r="Q129" s="14" t="s">
+      <c r="Q129" t="s">
         <v>244</v>
       </c>
-      <c r="R129" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S129" s="14" t="s">
+      <c r="R129" t="s">
+        <v>39</v>
+      </c>
+      <c r="S129" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6508,10 +6487,10 @@
       <c r="D130">
         <v>1</v>
       </c>
-      <c r="E130" s="17" t="s">
+      <c r="E130" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="F130" t="s">
         <v>31</v>
       </c>
       <c r="G130" s="6" t="s">
@@ -6526,13 +6505,13 @@
       <c r="J130" t="s">
         <v>99</v>
       </c>
-      <c r="K130" s="14" t="s">
+      <c r="K130" t="s">
         <v>101</v>
       </c>
       <c r="L130" t="s">
         <v>101</v>
       </c>
-      <c r="M130" s="14" t="s">
+      <c r="M130" t="s">
         <v>101</v>
       </c>
       <c r="N130" t="s">
@@ -6544,10 +6523,10 @@
       <c r="P130" t="s">
         <v>100</v>
       </c>
-      <c r="Q130" s="14" t="s">
+      <c r="Q130" t="s">
         <v>262</v>
       </c>
-      <c r="R130" s="14" t="s">
+      <c r="R130" t="s">
         <v>39</v>
       </c>
       <c r="S130" t="s">
@@ -6567,31 +6546,31 @@
       <c r="D131">
         <v>1</v>
       </c>
-      <c r="E131" s="17" t="s">
+      <c r="E131" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="F131" t="s">
         <v>36</v>
       </c>
       <c r="G131" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H131" s="7" t="s">
+      <c r="H131" t="s">
         <v>115</v>
       </c>
-      <c r="I131" s="7" t="s">
+      <c r="I131" t="s">
         <v>115</v>
       </c>
-      <c r="J131" s="7" t="s">
+      <c r="J131" t="s">
         <v>115</v>
       </c>
-      <c r="K131" s="14" t="s">
+      <c r="K131" t="s">
         <v>263</v>
       </c>
-      <c r="L131" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M131" s="14" t="s">
+      <c r="L131" t="s">
+        <v>39</v>
+      </c>
+      <c r="M131" t="s">
         <v>263</v>
       </c>
       <c r="N131" t="s">
@@ -6603,13 +6582,13 @@
       <c r="P131" t="s">
         <v>114</v>
       </c>
-      <c r="Q131" s="14" t="s">
+      <c r="Q131" t="s">
         <v>264</v>
       </c>
-      <c r="R131" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S131" s="14" t="s">
+      <c r="R131" t="s">
+        <v>39</v>
+      </c>
+      <c r="S131" t="s">
         <v>264</v>
       </c>
     </row>
@@ -6626,10 +6605,10 @@
       <c r="D132">
         <v>1</v>
       </c>
-      <c r="E132" s="17" t="s">
+      <c r="E132" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F132" s="7" t="s">
+      <c r="F132" t="s">
         <v>36</v>
       </c>
       <c r="G132" s="6" t="s">
@@ -6644,13 +6623,13 @@
       <c r="J132" t="s">
         <v>115</v>
       </c>
-      <c r="K132" s="14" t="s">
+      <c r="K132" t="s">
         <v>263</v>
       </c>
-      <c r="L132" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M132" s="14" t="s">
+      <c r="L132" t="s">
+        <v>39</v>
+      </c>
+      <c r="M132" t="s">
         <v>263</v>
       </c>
       <c r="N132" t="s">
@@ -6662,13 +6641,13 @@
       <c r="P132" t="s">
         <v>116</v>
       </c>
-      <c r="Q132" s="14" t="s">
+      <c r="Q132" t="s">
         <v>264</v>
       </c>
-      <c r="R132" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S132" s="14" t="s">
+      <c r="R132" t="s">
+        <v>39</v>
+      </c>
+      <c r="S132" t="s">
         <v>264</v>
       </c>
     </row>
@@ -6685,10 +6664,10 @@
       <c r="D133">
         <v>1</v>
       </c>
-      <c r="E133" s="17" t="s">
+      <c r="E133" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="F133" s="7" t="s">
+      <c r="F133" t="s">
         <v>31</v>
       </c>
       <c r="G133" s="6" t="s">
@@ -6703,28 +6682,28 @@
       <c r="J133" t="s">
         <v>74</v>
       </c>
-      <c r="K133" s="14" t="s">
+      <c r="K133" t="s">
         <v>266</v>
       </c>
-      <c r="L133" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M133" s="14" t="s">
+      <c r="L133" t="s">
+        <v>39</v>
+      </c>
+      <c r="M133" t="s">
         <v>266</v>
       </c>
-      <c r="N133" s="14" t="s">
+      <c r="N133" t="s">
         <v>121</v>
       </c>
       <c r="O133" t="s">
         <v>121</v>
       </c>
-      <c r="P133" s="14" t="s">
+      <c r="P133" t="s">
         <v>121</v>
       </c>
-      <c r="Q133" s="14" t="s">
+      <c r="Q133" t="s">
         <v>246</v>
       </c>
-      <c r="R133" s="14" t="s">
+      <c r="R133" t="s">
         <v>39</v>
       </c>
       <c r="S133" t="s">
@@ -6744,10 +6723,10 @@
       <c r="D134">
         <v>1</v>
       </c>
-      <c r="E134" s="17" t="s">
+      <c r="E134" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="F134" t="s">
         <v>31</v>
       </c>
       <c r="G134" s="6" t="s">
@@ -6762,10 +6741,10 @@
       <c r="J134" t="s">
         <v>74</v>
       </c>
-      <c r="K134" s="14" t="s">
+      <c r="K134" t="s">
         <v>267</v>
       </c>
-      <c r="L134" s="14" t="s">
+      <c r="L134" t="s">
         <v>39</v>
       </c>
       <c r="M134" t="s">
@@ -6780,10 +6759,10 @@
       <c r="P134" t="s">
         <v>85</v>
       </c>
-      <c r="Q134" s="14" t="s">
+      <c r="Q134" t="s">
         <v>246</v>
       </c>
-      <c r="R134" s="14" t="s">
+      <c r="R134" t="s">
         <v>39</v>
       </c>
       <c r="S134" t="s">
@@ -6803,10 +6782,10 @@
       <c r="D135">
         <v>2</v>
       </c>
-      <c r="E135" s="17" t="s">
+      <c r="E135" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F135" s="7" t="s">
+      <c r="F135" t="s">
         <v>31</v>
       </c>
       <c r="G135" s="6" t="s">
@@ -6815,16 +6794,16 @@
       <c r="H135" t="s">
         <v>74</v>
       </c>
-      <c r="I135" s="9" t="s">
+      <c r="I135" t="s">
         <v>39</v>
       </c>
       <c r="J135" t="s">
         <v>74</v>
       </c>
-      <c r="K135" s="14" t="s">
+      <c r="K135" t="s">
         <v>268</v>
       </c>
-      <c r="L135" s="14" t="s">
+      <c r="L135" t="s">
         <v>39</v>
       </c>
       <c r="M135" t="s">
@@ -6839,13 +6818,13 @@
       <c r="P135" t="s">
         <v>258</v>
       </c>
-      <c r="Q135" s="14" t="s">
+      <c r="Q135" t="s">
         <v>246</v>
       </c>
-      <c r="R135" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S135" s="14" t="s">
+      <c r="R135" t="s">
+        <v>39</v>
+      </c>
+      <c r="S135" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6862,10 +6841,10 @@
       <c r="D136">
         <v>1</v>
       </c>
-      <c r="E136" s="17" t="s">
+      <c r="E136" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F136" s="7" t="s">
+      <c r="F136" t="s">
         <v>31</v>
       </c>
       <c r="G136" s="6" t="s">
@@ -6880,31 +6859,31 @@
       <c r="J136" t="s">
         <v>74</v>
       </c>
-      <c r="K136" s="14" t="s">
+      <c r="K136" t="s">
         <v>270</v>
       </c>
-      <c r="L136" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M136" s="14" t="s">
+      <c r="L136" t="s">
+        <v>39</v>
+      </c>
+      <c r="M136" t="s">
         <v>270</v>
       </c>
-      <c r="N136" s="14" t="s">
+      <c r="N136" t="s">
         <v>78</v>
       </c>
       <c r="O136" t="s">
         <v>78</v>
       </c>
-      <c r="P136" s="14" t="s">
+      <c r="P136" t="s">
         <v>78</v>
       </c>
-      <c r="Q136" s="14" t="s">
+      <c r="Q136" t="s">
         <v>246</v>
       </c>
-      <c r="R136" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S136" s="14" t="s">
+      <c r="R136" t="s">
+        <v>39</v>
+      </c>
+      <c r="S136" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6921,10 +6900,10 @@
       <c r="D137">
         <v>1</v>
       </c>
-      <c r="E137" s="17" t="s">
+      <c r="E137" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F137" s="7" t="s">
+      <c r="F137" t="s">
         <v>31</v>
       </c>
       <c r="G137" s="6" t="s">
@@ -6939,13 +6918,13 @@
       <c r="J137" t="s">
         <v>74</v>
       </c>
-      <c r="K137" s="14" t="s">
+      <c r="K137" t="s">
         <v>269</v>
       </c>
-      <c r="L137" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M137" s="14" t="s">
+      <c r="L137" t="s">
+        <v>39</v>
+      </c>
+      <c r="M137" t="s">
         <v>269</v>
       </c>
       <c r="N137" t="s">
@@ -6957,10 +6936,10 @@
       <c r="P137" t="s">
         <v>138</v>
       </c>
-      <c r="Q137" s="14" t="s">
+      <c r="Q137" t="s">
         <v>246</v>
       </c>
-      <c r="R137" s="14" t="s">
+      <c r="R137" t="s">
         <v>39</v>
       </c>
       <c r="S137" t="s">
@@ -6980,10 +6959,10 @@
       <c r="D138">
         <v>1</v>
       </c>
-      <c r="E138" s="17" t="s">
+      <c r="E138" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F138" s="7" t="s">
+      <c r="F138" t="s">
         <v>31</v>
       </c>
       <c r="G138" s="6" t="s">
@@ -6998,10 +6977,10 @@
       <c r="J138" t="s">
         <v>74</v>
       </c>
-      <c r="K138" s="14" t="s">
+      <c r="K138" t="s">
         <v>271</v>
       </c>
-      <c r="L138" s="14" t="s">
+      <c r="L138" t="s">
         <v>39</v>
       </c>
       <c r="M138" t="s">
@@ -7016,10 +6995,10 @@
       <c r="P138" t="s">
         <v>139</v>
       </c>
-      <c r="Q138" s="14" t="s">
+      <c r="Q138" t="s">
         <v>246</v>
       </c>
-      <c r="R138" s="14" t="s">
+      <c r="R138" t="s">
         <v>39</v>
       </c>
       <c r="S138" t="s">
@@ -7039,10 +7018,10 @@
       <c r="D139">
         <v>1</v>
       </c>
-      <c r="E139" s="17" t="s">
+      <c r="E139" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F139" s="7" t="s">
+      <c r="F139" t="s">
         <v>124</v>
       </c>
       <c r="G139" s="6" t="s">
@@ -7057,10 +7036,10 @@
       <c r="J139" t="s">
         <v>146</v>
       </c>
-      <c r="K139" s="14" t="s">
+      <c r="K139" t="s">
         <v>272</v>
       </c>
-      <c r="L139" s="14" t="s">
+      <c r="L139" t="s">
         <v>39</v>
       </c>
       <c r="M139" t="s">
@@ -7069,16 +7048,16 @@
       <c r="N139" t="s">
         <v>273</v>
       </c>
-      <c r="O139" s="19" t="s">
+      <c r="O139" s="10" t="s">
         <v>147</v>
       </c>
       <c r="P139" t="s">
         <v>273</v>
       </c>
-      <c r="Q139" s="14" t="s">
+      <c r="Q139" t="s">
         <v>248</v>
       </c>
-      <c r="R139" s="14" t="s">
+      <c r="R139" t="s">
         <v>39</v>
       </c>
       <c r="S139" t="s">
@@ -7098,10 +7077,10 @@
       <c r="D140">
         <v>1</v>
       </c>
-      <c r="E140" s="17" t="s">
+      <c r="E140" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F140" s="7" t="s">
+      <c r="F140" t="s">
         <v>36</v>
       </c>
       <c r="G140" s="6" t="s">
@@ -7116,10 +7095,10 @@
       <c r="J140" t="s">
         <v>152</v>
       </c>
-      <c r="K140" s="14" t="s">
+      <c r="K140" t="s">
         <v>274</v>
       </c>
-      <c r="L140" s="14" t="s">
+      <c r="L140" t="s">
         <v>39</v>
       </c>
       <c r="M140" t="s">
@@ -7134,10 +7113,10 @@
       <c r="P140" t="s">
         <v>153</v>
       </c>
-      <c r="Q140" s="14" t="s">
+      <c r="Q140" t="s">
         <v>244</v>
       </c>
-      <c r="R140" s="14" t="s">
+      <c r="R140" t="s">
         <v>39</v>
       </c>
       <c r="S140" t="s">
@@ -7157,10 +7136,10 @@
       <c r="D141">
         <v>1</v>
       </c>
-      <c r="E141" s="17" t="s">
+      <c r="E141" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="F141" s="7" t="s">
+      <c r="F141" t="s">
         <v>31</v>
       </c>
       <c r="G141" s="6" t="s">
@@ -7175,10 +7154,10 @@
       <c r="J141" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K141" s="21" t="s">
+      <c r="K141" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="L141" s="21" t="s">
+      <c r="L141" s="3" t="s">
         <v>39</v>
       </c>
       <c r="M141" t="s">
@@ -7193,10 +7172,10 @@
       <c r="P141" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="Q141" s="22" t="s">
+      <c r="Q141" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="R141" s="22" t="s">
+      <c r="R141" s="4" t="s">
         <v>39</v>
       </c>
       <c r="S141" t="s">
@@ -7219,7 +7198,7 @@
       <c r="E142" t="s">
         <v>157</v>
       </c>
-      <c r="F142" s="16" t="s">
+      <c r="F142" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G142" t="s">
@@ -7242,7 +7221,7 @@
       <c r="E143" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F143" s="7" t="s">
+      <c r="F143" t="s">
         <v>36</v>
       </c>
       <c r="G143" t="s">
@@ -7265,7 +7244,7 @@
       <c r="E144" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F144" s="7" t="s">
+      <c r="F144" t="s">
         <v>36</v>
       </c>
       <c r="G144" t="s">
@@ -7288,7 +7267,7 @@
       <c r="E145" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F145" s="7" t="s">
+      <c r="F145" t="s">
         <v>31</v>
       </c>
       <c r="G145" t="s">
@@ -7311,7 +7290,7 @@
       <c r="E146" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F146" s="7" t="s">
+      <c r="F146" t="s">
         <v>36</v>
       </c>
       <c r="G146" t="s">
@@ -7334,7 +7313,7 @@
       <c r="E147" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F147" s="7" t="s">
+      <c r="F147" t="s">
         <v>36</v>
       </c>
       <c r="G147" t="s">
@@ -7357,7 +7336,7 @@
       <c r="E148" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F148" s="7" t="s">
+      <c r="F148" t="s">
         <v>36</v>
       </c>
       <c r="G148" t="s">
@@ -7380,7 +7359,7 @@
       <c r="E149" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F149" s="7" t="s">
+      <c r="F149" t="s">
         <v>31</v>
       </c>
       <c r="G149" t="s">
@@ -7403,7 +7382,7 @@
       <c r="E150" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F150" s="7" t="s">
+      <c r="F150" t="s">
         <v>31</v>
       </c>
       <c r="G150" t="s">
@@ -7426,7 +7405,7 @@
       <c r="E151" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F151" s="7" t="s">
+      <c r="F151" t="s">
         <v>31</v>
       </c>
       <c r="G151" t="s">
@@ -7446,13 +7425,13 @@
       <c r="D152">
         <v>1</v>
       </c>
-      <c r="E152" s="13" t="s">
+      <c r="E152" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="F152" s="13" t="s">
+      <c r="F152" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G152" s="13" t="s">
+      <c r="G152" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -7469,13 +7448,13 @@
       <c r="D153">
         <v>1</v>
       </c>
-      <c r="E153" s="12" t="s">
+      <c r="E153" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F153" s="13" t="s">
+      <c r="F153" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G153" s="13" t="s">
+      <c r="G153" s="9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7492,13 +7471,13 @@
       <c r="D154">
         <v>1</v>
       </c>
-      <c r="E154" s="12" t="s">
+      <c r="E154" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="F154" s="13" t="s">
+      <c r="F154" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G154" s="13" t="s">
+      <c r="G154" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7518,10 +7497,10 @@
       <c r="E155" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F155" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G155" s="7" t="s">
+      <c r="F155" t="s">
+        <v>31</v>
+      </c>
+      <c r="G155" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7541,10 +7520,10 @@
       <c r="E156" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F156" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G156" s="7" t="s">
+      <c r="F156" t="s">
+        <v>31</v>
+      </c>
+      <c r="G156" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7564,10 +7543,10 @@
       <c r="E157" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F157" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G157" s="7" t="s">
+      <c r="F157" t="s">
+        <v>31</v>
+      </c>
+      <c r="G157" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7587,10 +7566,10 @@
       <c r="E158" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F158" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G158" s="7" t="s">
+      <c r="F158" t="s">
+        <v>31</v>
+      </c>
+      <c r="G158" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7610,10 +7589,10 @@
       <c r="E159" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F159" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G159" s="7" t="s">
+      <c r="F159" t="s">
+        <v>31</v>
+      </c>
+      <c r="G159" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7633,10 +7612,10 @@
       <c r="E160" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F160" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G160" s="7" t="s">
+      <c r="F160" t="s">
+        <v>31</v>
+      </c>
+      <c r="G160" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7656,10 +7635,10 @@
       <c r="E161" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F161" s="7" t="s">
+      <c r="F161" t="s">
         <v>37</v>
       </c>
-      <c r="G161" s="7" t="s">
+      <c r="G161" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7679,10 +7658,10 @@
       <c r="E162" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F162" s="7" t="s">
+      <c r="F162" t="s">
         <v>37</v>
       </c>
-      <c r="G162" s="7" t="s">
+      <c r="G162" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7702,10 +7681,10 @@
       <c r="E163" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F163" s="10" t="s">
+      <c r="F163" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G163" s="7" t="s">
+      <c r="G163" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7725,10 +7704,10 @@
       <c r="E164" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F164" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G164" s="7" t="s">
+      <c r="F164" t="s">
+        <v>31</v>
+      </c>
+      <c r="G164" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7748,10 +7727,10 @@
       <c r="E165" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F165" s="7" t="s">
+      <c r="F165" t="s">
         <v>36</v>
       </c>
-      <c r="G165" s="7" t="s">
+      <c r="G165" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7771,10 +7750,10 @@
       <c r="E166" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F166" s="7" t="s">
+      <c r="F166" t="s">
         <v>36</v>
       </c>
-      <c r="G166" s="7" t="s">
+      <c r="G166" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7794,10 +7773,10 @@
       <c r="E167" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F167" s="7" t="s">
+      <c r="F167" t="s">
         <v>36</v>
       </c>
-      <c r="G167" s="7" t="s">
+      <c r="G167" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7817,10 +7796,10 @@
       <c r="E168" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F168" s="7" t="s">
+      <c r="F168" t="s">
         <v>36</v>
       </c>
-      <c r="G168" s="7" t="s">
+      <c r="G168" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7840,10 +7819,10 @@
       <c r="E169" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F169" s="7" t="s">
+      <c r="F169" t="s">
         <v>36</v>
       </c>
-      <c r="G169" s="7" t="s">
+      <c r="G169" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7863,10 +7842,10 @@
       <c r="E170" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F170" s="7" t="s">
+      <c r="F170" t="s">
         <v>36</v>
       </c>
-      <c r="G170" s="7" t="s">
+      <c r="G170" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7886,10 +7865,10 @@
       <c r="E171" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F171" s="7" t="s">
+      <c r="F171" t="s">
         <v>36</v>
       </c>
-      <c r="G171" s="7" t="s">
+      <c r="G171" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7909,10 +7888,10 @@
       <c r="E172" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F172" s="7" t="s">
+      <c r="F172" t="s">
         <v>36</v>
       </c>
-      <c r="G172" s="7" t="s">
+      <c r="G172" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7932,10 +7911,10 @@
       <c r="E173" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F173" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G173" s="7" t="s">
+      <c r="F173" t="s">
+        <v>31</v>
+      </c>
+      <c r="G173" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7955,10 +7934,10 @@
       <c r="E174" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F174" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G174" s="7" t="s">
+      <c r="F174" t="s">
+        <v>31</v>
+      </c>
+      <c r="G174" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7978,10 +7957,10 @@
       <c r="E175" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F175" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G175" s="7" t="s">
+      <c r="F175" t="s">
+        <v>31</v>
+      </c>
+      <c r="G175" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8001,10 +7980,10 @@
       <c r="E176" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F176" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G176" s="7" t="s">
+      <c r="F176" t="s">
+        <v>31</v>
+      </c>
+      <c r="G176" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8024,10 +8003,10 @@
       <c r="E177" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F177" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G177" s="7" t="s">
+      <c r="F177" t="s">
+        <v>31</v>
+      </c>
+      <c r="G177" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8047,10 +8026,10 @@
       <c r="E178" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F178" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G178" s="7" t="s">
+      <c r="F178" t="s">
+        <v>31</v>
+      </c>
+      <c r="G178" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8070,10 +8049,10 @@
       <c r="E179" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F179" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G179" s="7" t="s">
+      <c r="F179" t="s">
+        <v>31</v>
+      </c>
+      <c r="G179" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8093,10 +8072,10 @@
       <c r="E180" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F180" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G180" s="7" t="s">
+      <c r="F180" t="s">
+        <v>31</v>
+      </c>
+      <c r="G180" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8116,10 +8095,10 @@
       <c r="E181" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F181" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G181" s="7" t="s">
+      <c r="F181" t="s">
+        <v>31</v>
+      </c>
+      <c r="G181" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8139,10 +8118,10 @@
       <c r="E182" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F182" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G182" s="7" t="s">
+      <c r="F182" t="s">
+        <v>31</v>
+      </c>
+      <c r="G182" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8162,10 +8141,10 @@
       <c r="E183" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F183" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G183" s="7" t="s">
+      <c r="F183" t="s">
+        <v>31</v>
+      </c>
+      <c r="G183" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8185,10 +8164,10 @@
       <c r="E184" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F184" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G184" s="7" t="s">
+      <c r="F184" t="s">
+        <v>31</v>
+      </c>
+      <c r="G184" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8208,10 +8187,10 @@
       <c r="E185" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F185" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G185" s="7" t="s">
+      <c r="F185" t="s">
+        <v>31</v>
+      </c>
+      <c r="G185" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8231,10 +8210,10 @@
       <c r="E186" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F186" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G186" s="7" t="s">
+      <c r="F186" t="s">
+        <v>31</v>
+      </c>
+      <c r="G186" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8254,10 +8233,10 @@
       <c r="E187" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F187" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G187" s="7" t="s">
+      <c r="F187" t="s">
+        <v>31</v>
+      </c>
+      <c r="G187" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8277,10 +8256,10 @@
       <c r="E188" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F188" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G188" s="7" t="s">
+      <c r="F188" t="s">
+        <v>31</v>
+      </c>
+      <c r="G188" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8300,10 +8279,10 @@
       <c r="E189" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F189" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G189" s="7" t="s">
+      <c r="F189" t="s">
+        <v>31</v>
+      </c>
+      <c r="G189" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8323,7 +8302,7 @@
       <c r="E190" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F190" s="15" t="s">
+      <c r="F190" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G190" s="2" t="s">

--- a/Input Data Summary/OtherFields_From_IR_and_Source.xlsx
+++ b/Input Data Summary/OtherFields_From_IR_and_Source.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Input Data Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA31EAA2-F80B-43B0-8DC1-3371E765BACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD53EEF-7912-4A38-81C1-1EA7FC3D75F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" xr2:uid="{7EB6CA85-DEC3-4664-8E37-E2FE4A578472}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dataset_Source_v5" sheetId="1" r:id="rId1"/>
+    <sheet name="OtherFields_From_IR_and_Source" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -2018,8 +2018,8 @@
   <dimension ref="A1:S190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N143" sqref="N143"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
